--- a/data/excel/dataset_medicos_ficticio_oportunidad.xlsx
+++ b/data/excel/dataset_medicos_ficticio_oportunidad.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Proyectos\Agente IA Pdf y Excel\data\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{076BD135-7DF2-43D3-86D7-F3823DF4016B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE010CD5-B1B5-4073-9B24-9D8CE08F6CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$601</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -2494,9 +2497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D601"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2531,8 +2532,7 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <f ca="1">RANDBETWEEN(2,90)</f>
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -2546,8 +2546,7 @@
         <v>8</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D66" ca="1" si="0">RANDBETWEEN(2,90)</f>
-        <v>64</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -2561,8 +2560,7 @@
         <v>11</v>
       </c>
       <c r="D4">
-        <f t="shared" ca="1" si="0"/>
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -2576,8 +2574,7 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <f t="shared" ca="1" si="0"/>
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -2591,8 +2588,7 @@
         <v>8</v>
       </c>
       <c r="D6">
-        <f t="shared" ca="1" si="0"/>
-        <v>76</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -2606,8 +2602,7 @@
         <v>17</v>
       </c>
       <c r="D7">
-        <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -2621,8 +2616,7 @@
         <v>8</v>
       </c>
       <c r="D8">
-        <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -2636,8 +2630,7 @@
         <v>8</v>
       </c>
       <c r="D9">
-        <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -2651,8 +2644,7 @@
         <v>8</v>
       </c>
       <c r="D10">
-        <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -2666,8 +2658,7 @@
         <v>25</v>
       </c>
       <c r="D11">
-        <f t="shared" ca="1" si="0"/>
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -2681,8 +2672,7 @@
         <v>5</v>
       </c>
       <c r="D12">
-        <f t="shared" ca="1" si="0"/>
-        <v>22</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -2696,8 +2686,7 @@
         <v>17</v>
       </c>
       <c r="D13">
-        <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -2711,8 +2700,7 @@
         <v>11</v>
       </c>
       <c r="D14">
-        <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -2726,8 +2714,7 @@
         <v>17</v>
       </c>
       <c r="D15">
-        <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -2741,8 +2728,7 @@
         <v>5</v>
       </c>
       <c r="D16">
-        <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -2756,8 +2742,7 @@
         <v>11</v>
       </c>
       <c r="D17">
-        <f t="shared" ca="1" si="0"/>
-        <v>84</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -2771,8 +2756,7 @@
         <v>17</v>
       </c>
       <c r="D18">
-        <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -2786,8 +2770,7 @@
         <v>17</v>
       </c>
       <c r="D19">
-        <f t="shared" ca="1" si="0"/>
-        <v>77</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -2801,8 +2784,7 @@
         <v>8</v>
       </c>
       <c r="D20">
-        <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -2816,8 +2798,7 @@
         <v>5</v>
       </c>
       <c r="D21">
-        <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -2831,8 +2812,7 @@
         <v>11</v>
       </c>
       <c r="D22">
-        <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -2846,8 +2826,7 @@
         <v>11</v>
       </c>
       <c r="D23">
-        <f t="shared" ca="1" si="0"/>
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -2861,8 +2840,7 @@
         <v>25</v>
       </c>
       <c r="D24">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -2876,8 +2854,7 @@
         <v>17</v>
       </c>
       <c r="D25">
-        <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -2891,8 +2868,7 @@
         <v>5</v>
       </c>
       <c r="D26">
-        <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -2906,8 +2882,7 @@
         <v>8</v>
       </c>
       <c r="D27">
-        <f t="shared" ca="1" si="0"/>
-        <v>74</v>
+        <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -2921,8 +2896,7 @@
         <v>8</v>
       </c>
       <c r="D28">
-        <f t="shared" ca="1" si="0"/>
-        <v>83</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -2936,8 +2910,7 @@
         <v>8</v>
       </c>
       <c r="D29">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -2951,8 +2924,7 @@
         <v>25</v>
       </c>
       <c r="D30">
-        <f t="shared" ca="1" si="0"/>
-        <v>66</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -2966,8 +2938,7 @@
         <v>17</v>
       </c>
       <c r="D31">
-        <f t="shared" ca="1" si="0"/>
-        <v>23</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -2981,8 +2952,7 @@
         <v>5</v>
       </c>
       <c r="D32">
-        <f t="shared" ca="1" si="0"/>
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -2996,8 +2966,7 @@
         <v>5</v>
       </c>
       <c r="D33">
-        <f t="shared" ca="1" si="0"/>
-        <v>47</v>
+        <v>89</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -3011,8 +2980,7 @@
         <v>11</v>
       </c>
       <c r="D34">
-        <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -3026,8 +2994,7 @@
         <v>8</v>
       </c>
       <c r="D35">
-        <f t="shared" ca="1" si="0"/>
-        <v>42</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -3041,8 +3008,7 @@
         <v>5</v>
       </c>
       <c r="D36">
-        <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -3056,8 +3022,7 @@
         <v>25</v>
       </c>
       <c r="D37">
-        <f t="shared" ca="1" si="0"/>
-        <v>32</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -3071,8 +3036,7 @@
         <v>25</v>
       </c>
       <c r="D38">
-        <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -3086,8 +3050,7 @@
         <v>5</v>
       </c>
       <c r="D39">
-        <f t="shared" ca="1" si="0"/>
-        <v>73</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -3101,8 +3064,7 @@
         <v>17</v>
       </c>
       <c r="D40">
-        <f t="shared" ca="1" si="0"/>
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -3116,8 +3078,7 @@
         <v>25</v>
       </c>
       <c r="D41">
-        <f t="shared" ca="1" si="0"/>
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -3131,8 +3092,7 @@
         <v>5</v>
       </c>
       <c r="D42">
-        <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -3146,8 +3106,7 @@
         <v>17</v>
       </c>
       <c r="D43">
-        <f t="shared" ca="1" si="0"/>
-        <v>25</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -3161,8 +3120,7 @@
         <v>8</v>
       </c>
       <c r="D44">
-        <f t="shared" ca="1" si="0"/>
-        <v>67</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -3176,8 +3134,7 @@
         <v>5</v>
       </c>
       <c r="D45">
-        <f t="shared" ca="1" si="0"/>
-        <v>87</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -3191,8 +3148,7 @@
         <v>25</v>
       </c>
       <c r="D46">
-        <f t="shared" ca="1" si="0"/>
-        <v>62</v>
+        <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -3206,8 +3162,7 @@
         <v>5</v>
       </c>
       <c r="D47">
-        <f t="shared" ca="1" si="0"/>
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -3221,8 +3176,7 @@
         <v>17</v>
       </c>
       <c r="D48">
-        <f t="shared" ca="1" si="0"/>
-        <v>61</v>
+        <v>33</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -3236,8 +3190,7 @@
         <v>5</v>
       </c>
       <c r="D49">
-        <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>36</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -3251,8 +3204,7 @@
         <v>5</v>
       </c>
       <c r="D50">
-        <f t="shared" ca="1" si="0"/>
-        <v>50</v>
+        <v>83</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -3266,8 +3218,7 @@
         <v>8</v>
       </c>
       <c r="D51">
-        <f t="shared" ca="1" si="0"/>
-        <v>41</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -3281,8 +3232,7 @@
         <v>5</v>
       </c>
       <c r="D52">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <v>88</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -3296,8 +3246,7 @@
         <v>17</v>
       </c>
       <c r="D53">
-        <f t="shared" ca="1" si="0"/>
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -3311,8 +3260,7 @@
         <v>5</v>
       </c>
       <c r="D54">
-        <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -3326,8 +3274,7 @@
         <v>17</v>
       </c>
       <c r="D55">
-        <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -3341,8 +3288,7 @@
         <v>11</v>
       </c>
       <c r="D56">
-        <f t="shared" ca="1" si="0"/>
-        <v>16</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -3356,8 +3302,7 @@
         <v>8</v>
       </c>
       <c r="D57">
-        <f t="shared" ca="1" si="0"/>
-        <v>59</v>
+        <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -3371,8 +3316,7 @@
         <v>17</v>
       </c>
       <c r="D58">
-        <f t="shared" ca="1" si="0"/>
-        <v>8</v>
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -3386,8 +3330,7 @@
         <v>25</v>
       </c>
       <c r="D59">
-        <f t="shared" ca="1" si="0"/>
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -3401,8 +3344,7 @@
         <v>5</v>
       </c>
       <c r="D60">
-        <f t="shared" ca="1" si="0"/>
-        <v>72</v>
+        <v>88</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -3416,8 +3358,7 @@
         <v>8</v>
       </c>
       <c r="D61">
-        <f t="shared" ca="1" si="0"/>
-        <v>29</v>
+        <v>50</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -3431,8 +3372,7 @@
         <v>17</v>
       </c>
       <c r="D62">
-        <f t="shared" ca="1" si="0"/>
-        <v>55</v>
+        <v>29</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -3446,8 +3386,7 @@
         <v>11</v>
       </c>
       <c r="D63">
-        <f t="shared" ca="1" si="0"/>
-        <v>6</v>
+        <v>63</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -3461,8 +3400,7 @@
         <v>8</v>
       </c>
       <c r="D64">
-        <f t="shared" ca="1" si="0"/>
-        <v>12</v>
+        <v>90</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -3476,8 +3414,7 @@
         <v>25</v>
       </c>
       <c r="D65">
-        <f t="shared" ca="1" si="0"/>
-        <v>78</v>
+        <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -3491,8 +3428,7 @@
         <v>25</v>
       </c>
       <c r="D66">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -3506,8 +3442,7 @@
         <v>25</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D130" ca="1" si="1">RANDBETWEEN(2,90)</f>
-        <v>51</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -3521,8 +3456,7 @@
         <v>17</v>
       </c>
       <c r="D68">
-        <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>40</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -3536,8 +3470,7 @@
         <v>11</v>
       </c>
       <c r="D69">
-        <f t="shared" ca="1" si="1"/>
-        <v>26</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -3551,8 +3484,7 @@
         <v>25</v>
       </c>
       <c r="D70">
-        <f t="shared" ca="1" si="1"/>
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -3566,8 +3498,7 @@
         <v>17</v>
       </c>
       <c r="D71">
-        <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -3581,8 +3512,7 @@
         <v>11</v>
       </c>
       <c r="D72">
-        <f t="shared" ca="1" si="1"/>
-        <v>37</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -3596,8 +3526,7 @@
         <v>8</v>
       </c>
       <c r="D73">
-        <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -3611,8 +3540,7 @@
         <v>5</v>
       </c>
       <c r="D74">
-        <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -3626,8 +3554,7 @@
         <v>11</v>
       </c>
       <c r="D75">
-        <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>46</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -3641,8 +3568,7 @@
         <v>8</v>
       </c>
       <c r="D76">
-        <f t="shared" ca="1" si="1"/>
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -3656,8 +3582,7 @@
         <v>25</v>
       </c>
       <c r="D77">
-        <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>31</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -3671,8 +3596,7 @@
         <v>17</v>
       </c>
       <c r="D78">
-        <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -3686,8 +3610,7 @@
         <v>8</v>
       </c>
       <c r="D79">
-        <f t="shared" ca="1" si="1"/>
-        <v>43</v>
+        <v>71</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -3701,8 +3624,7 @@
         <v>5</v>
       </c>
       <c r="D80">
-        <f t="shared" ca="1" si="1"/>
-        <v>34</v>
+        <v>68</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -3716,8 +3638,7 @@
         <v>17</v>
       </c>
       <c r="D81">
-        <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -3731,8 +3652,7 @@
         <v>8</v>
       </c>
       <c r="D82">
-        <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>67</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -3746,8 +3666,7 @@
         <v>5</v>
       </c>
       <c r="D83">
-        <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -3761,8 +3680,7 @@
         <v>17</v>
       </c>
       <c r="D84">
-        <f t="shared" ca="1" si="1"/>
-        <v>85</v>
+        <v>72</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -3776,8 +3694,7 @@
         <v>5</v>
       </c>
       <c r="D85">
-        <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -3791,8 +3708,7 @@
         <v>25</v>
       </c>
       <c r="D86">
-        <f t="shared" ca="1" si="1"/>
-        <v>89</v>
+        <v>17</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -3806,8 +3722,7 @@
         <v>25</v>
       </c>
       <c r="D87">
-        <f t="shared" ca="1" si="1"/>
-        <v>49</v>
+        <v>83</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -3821,8 +3736,7 @@
         <v>11</v>
       </c>
       <c r="D88">
-        <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>55</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -3836,8 +3750,7 @@
         <v>11</v>
       </c>
       <c r="D89">
-        <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>62</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -3851,8 +3764,7 @@
         <v>5</v>
       </c>
       <c r="D90">
-        <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>40</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -3866,8 +3778,7 @@
         <v>17</v>
       </c>
       <c r="D91">
-        <f t="shared" ca="1" si="1"/>
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -3881,8 +3792,7 @@
         <v>25</v>
       </c>
       <c r="D92">
-        <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>85</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -3896,8 +3806,7 @@
         <v>17</v>
       </c>
       <c r="D93">
-        <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -3911,8 +3820,7 @@
         <v>11</v>
       </c>
       <c r="D94">
-        <f t="shared" ca="1" si="1"/>
-        <v>36</v>
+        <v>88</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -3926,8 +3834,7 @@
         <v>25</v>
       </c>
       <c r="D95">
-        <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -3941,8 +3848,7 @@
         <v>25</v>
       </c>
       <c r="D96">
-        <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -3956,8 +3862,7 @@
         <v>5</v>
       </c>
       <c r="D97">
-        <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>41</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -3971,8 +3876,7 @@
         <v>17</v>
       </c>
       <c r="D98">
-        <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>43</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -3986,7 +3890,6 @@
         <v>17</v>
       </c>
       <c r="D99">
-        <f t="shared" ca="1" si="1"/>
         <v>41</v>
       </c>
     </row>
@@ -4001,8 +3904,7 @@
         <v>8</v>
       </c>
       <c r="D100">
-        <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>78</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -4016,8 +3918,7 @@
         <v>11</v>
       </c>
       <c r="D101">
-        <f t="shared" ca="1" si="1"/>
-        <v>29</v>
+        <v>47</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -4031,8 +3932,7 @@
         <v>5</v>
       </c>
       <c r="D102">
-        <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -4046,8 +3946,7 @@
         <v>5</v>
       </c>
       <c r="D103">
-        <f t="shared" ca="1" si="1"/>
-        <v>41</v>
+        <v>22</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -4061,8 +3960,7 @@
         <v>5</v>
       </c>
       <c r="D104">
-        <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>64</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -4076,8 +3974,7 @@
         <v>25</v>
       </c>
       <c r="D105">
-        <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>81</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -4091,8 +3988,7 @@
         <v>11</v>
       </c>
       <c r="D106">
-        <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>89</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -4106,8 +4002,7 @@
         <v>11</v>
       </c>
       <c r="D107">
-        <f t="shared" ca="1" si="1"/>
-        <v>13</v>
+        <v>43</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -4121,8 +4016,7 @@
         <v>5</v>
       </c>
       <c r="D108">
-        <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>72</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -4136,8 +4030,7 @@
         <v>17</v>
       </c>
       <c r="D109">
-        <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>68</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -4151,8 +4044,7 @@
         <v>25</v>
       </c>
       <c r="D110">
-        <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>53</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -4166,8 +4058,7 @@
         <v>11</v>
       </c>
       <c r="D111">
-        <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>31</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -4181,8 +4072,7 @@
         <v>5</v>
       </c>
       <c r="D112">
-        <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>60</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -4196,8 +4086,7 @@
         <v>25</v>
       </c>
       <c r="D113">
-        <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -4211,8 +4100,7 @@
         <v>5</v>
       </c>
       <c r="D114">
-        <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -4226,8 +4114,7 @@
         <v>5</v>
       </c>
       <c r="D115">
-        <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -4241,8 +4128,7 @@
         <v>5</v>
       </c>
       <c r="D116">
-        <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -4256,8 +4142,7 @@
         <v>8</v>
       </c>
       <c r="D117">
-        <f t="shared" ca="1" si="1"/>
-        <v>59</v>
+        <v>34</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -4271,8 +4156,7 @@
         <v>25</v>
       </c>
       <c r="D118">
-        <f t="shared" ca="1" si="1"/>
-        <v>42</v>
+        <v>19</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -4286,8 +4170,7 @@
         <v>17</v>
       </c>
       <c r="D119">
-        <f t="shared" ca="1" si="1"/>
-        <v>53</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
@@ -4301,8 +4184,7 @@
         <v>11</v>
       </c>
       <c r="D120">
-        <f t="shared" ca="1" si="1"/>
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
@@ -4316,8 +4198,7 @@
         <v>8</v>
       </c>
       <c r="D121">
-        <f t="shared" ca="1" si="1"/>
-        <v>88</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
@@ -4331,8 +4212,7 @@
         <v>8</v>
       </c>
       <c r="D122">
-        <f t="shared" ca="1" si="1"/>
-        <v>71</v>
+        <v>28</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
@@ -4346,8 +4226,7 @@
         <v>25</v>
       </c>
       <c r="D123">
-        <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -4361,8 +4240,7 @@
         <v>25</v>
       </c>
       <c r="D124">
-        <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>38</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
@@ -4376,8 +4254,7 @@
         <v>8</v>
       </c>
       <c r="D125">
-        <f t="shared" ca="1" si="1"/>
-        <v>87</v>
+        <v>77</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -4391,8 +4268,7 @@
         <v>5</v>
       </c>
       <c r="D126">
-        <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>84</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
@@ -4406,8 +4282,7 @@
         <v>17</v>
       </c>
       <c r="D127">
-        <f t="shared" ca="1" si="1"/>
-        <v>64</v>
+        <v>22</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
@@ -4421,8 +4296,7 @@
         <v>11</v>
       </c>
       <c r="D128">
-        <f t="shared" ca="1" si="1"/>
-        <v>33</v>
+        <v>85</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
@@ -4436,8 +4310,7 @@
         <v>5</v>
       </c>
       <c r="D129">
-        <f t="shared" ca="1" si="1"/>
-        <v>67</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
@@ -4451,8 +4324,7 @@
         <v>5</v>
       </c>
       <c r="D130">
-        <f t="shared" ca="1" si="1"/>
-        <v>66</v>
+        <v>51</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
@@ -4466,8 +4338,7 @@
         <v>11</v>
       </c>
       <c r="D131">
-        <f t="shared" ref="D131:D194" ca="1" si="2">RANDBETWEEN(2,90)</f>
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
@@ -4481,8 +4352,7 @@
         <v>8</v>
       </c>
       <c r="D132">
-        <f t="shared" ca="1" si="2"/>
-        <v>44</v>
+        <v>20</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
@@ -4496,8 +4366,7 @@
         <v>25</v>
       </c>
       <c r="D133">
-        <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>76</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
@@ -4511,8 +4380,7 @@
         <v>17</v>
       </c>
       <c r="D134">
-        <f t="shared" ca="1" si="2"/>
-        <v>36</v>
+        <v>78</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
@@ -4526,8 +4394,7 @@
         <v>5</v>
       </c>
       <c r="D135">
-        <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
@@ -4541,8 +4408,7 @@
         <v>11</v>
       </c>
       <c r="D136">
-        <f t="shared" ca="1" si="2"/>
-        <v>78</v>
+        <v>6</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
@@ -4556,8 +4422,7 @@
         <v>11</v>
       </c>
       <c r="D137">
-        <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
@@ -4571,8 +4436,7 @@
         <v>5</v>
       </c>
       <c r="D138">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
@@ -4586,8 +4450,7 @@
         <v>8</v>
       </c>
       <c r="D139">
-        <f t="shared" ca="1" si="2"/>
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
@@ -4601,8 +4464,7 @@
         <v>5</v>
       </c>
       <c r="D140">
-        <f t="shared" ca="1" si="2"/>
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
@@ -4616,8 +4478,7 @@
         <v>25</v>
       </c>
       <c r="D141">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
@@ -4631,8 +4492,7 @@
         <v>5</v>
       </c>
       <c r="D142">
-        <f t="shared" ca="1" si="2"/>
-        <v>68</v>
+        <v>4</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
@@ -4646,8 +4506,7 @@
         <v>25</v>
       </c>
       <c r="D143">
-        <f t="shared" ca="1" si="2"/>
-        <v>81</v>
+        <v>7</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
@@ -4661,8 +4520,7 @@
         <v>17</v>
       </c>
       <c r="D144">
-        <f t="shared" ca="1" si="2"/>
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
@@ -4676,8 +4534,7 @@
         <v>8</v>
       </c>
       <c r="D145">
-        <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>73</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
@@ -4691,8 +4548,7 @@
         <v>25</v>
       </c>
       <c r="D146">
-        <f t="shared" ca="1" si="2"/>
-        <v>30</v>
+        <v>55</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
@@ -4706,8 +4562,7 @@
         <v>17</v>
       </c>
       <c r="D147">
-        <f t="shared" ca="1" si="2"/>
-        <v>46</v>
+        <v>7</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
@@ -4721,8 +4576,7 @@
         <v>5</v>
       </c>
       <c r="D148">
-        <f t="shared" ca="1" si="2"/>
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
@@ -4736,8 +4590,7 @@
         <v>25</v>
       </c>
       <c r="D149">
-        <f t="shared" ca="1" si="2"/>
-        <v>6</v>
+        <v>73</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
@@ -4751,8 +4604,7 @@
         <v>11</v>
       </c>
       <c r="D150">
-        <f t="shared" ca="1" si="2"/>
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
@@ -4766,8 +4618,7 @@
         <v>17</v>
       </c>
       <c r="D151">
-        <f t="shared" ca="1" si="2"/>
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
@@ -4781,8 +4632,7 @@
         <v>11</v>
       </c>
       <c r="D152">
-        <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>51</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
@@ -4796,8 +4646,7 @@
         <v>5</v>
       </c>
       <c r="D153">
-        <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>57</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
@@ -4811,8 +4660,7 @@
         <v>17</v>
       </c>
       <c r="D154">
-        <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>75</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
@@ -4826,8 +4674,7 @@
         <v>8</v>
       </c>
       <c r="D155">
-        <f t="shared" ca="1" si="2"/>
-        <v>85</v>
+        <v>24</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
@@ -4841,8 +4688,7 @@
         <v>5</v>
       </c>
       <c r="D156">
-        <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
@@ -4856,8 +4702,7 @@
         <v>11</v>
       </c>
       <c r="D157">
-        <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
@@ -4871,8 +4716,7 @@
         <v>8</v>
       </c>
       <c r="D158">
-        <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
@@ -4886,8 +4730,7 @@
         <v>8</v>
       </c>
       <c r="D159">
-        <f t="shared" ca="1" si="2"/>
-        <v>77</v>
+        <v>6</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
@@ -4901,8 +4744,7 @@
         <v>25</v>
       </c>
       <c r="D160">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>52</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
@@ -4916,8 +4758,7 @@
         <v>8</v>
       </c>
       <c r="D161">
-        <f t="shared" ca="1" si="2"/>
-        <v>86</v>
+        <v>23</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
@@ -4931,8 +4772,7 @@
         <v>5</v>
       </c>
       <c r="D162">
-        <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
@@ -4946,8 +4786,7 @@
         <v>8</v>
       </c>
       <c r="D163">
-        <f t="shared" ca="1" si="2"/>
-        <v>63</v>
+        <v>77</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
@@ -4961,8 +4800,7 @@
         <v>11</v>
       </c>
       <c r="D164">
-        <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
@@ -4976,8 +4814,7 @@
         <v>11</v>
       </c>
       <c r="D165">
-        <f t="shared" ca="1" si="2"/>
-        <v>13</v>
+        <v>90</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
@@ -4991,8 +4828,7 @@
         <v>25</v>
       </c>
       <c r="D166">
-        <f t="shared" ca="1" si="2"/>
-        <v>58</v>
+        <v>5</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
@@ -5006,8 +4842,7 @@
         <v>11</v>
       </c>
       <c r="D167">
-        <f t="shared" ca="1" si="2"/>
-        <v>88</v>
+        <v>10</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
@@ -5021,8 +4856,7 @@
         <v>8</v>
       </c>
       <c r="D168">
-        <f t="shared" ca="1" si="2"/>
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
@@ -5036,8 +4870,7 @@
         <v>25</v>
       </c>
       <c r="D169">
-        <f t="shared" ca="1" si="2"/>
-        <v>79</v>
+        <v>52</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
@@ -5051,8 +4884,7 @@
         <v>17</v>
       </c>
       <c r="D170">
-        <f t="shared" ca="1" si="2"/>
-        <v>44</v>
+        <v>6</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
@@ -5066,8 +4898,7 @@
         <v>11</v>
       </c>
       <c r="D171">
-        <f t="shared" ca="1" si="2"/>
-        <v>85</v>
+        <v>48</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
@@ -5081,8 +4912,7 @@
         <v>25</v>
       </c>
       <c r="D172">
-        <f t="shared" ca="1" si="2"/>
-        <v>23</v>
+        <v>65</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
@@ -5096,8 +4926,7 @@
         <v>25</v>
       </c>
       <c r="D173">
-        <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
@@ -5111,8 +4940,7 @@
         <v>8</v>
       </c>
       <c r="D174">
-        <f t="shared" ca="1" si="2"/>
-        <v>42</v>
+        <v>29</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
@@ -5126,7 +4954,6 @@
         <v>8</v>
       </c>
       <c r="D175">
-        <f t="shared" ca="1" si="2"/>
         <v>11</v>
       </c>
     </row>
@@ -5141,8 +4968,7 @@
         <v>17</v>
       </c>
       <c r="D176">
-        <f t="shared" ca="1" si="2"/>
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
@@ -5156,8 +4982,7 @@
         <v>17</v>
       </c>
       <c r="D177">
-        <f t="shared" ca="1" si="2"/>
-        <v>62</v>
+        <v>46</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
@@ -5171,8 +4996,7 @@
         <v>5</v>
       </c>
       <c r="D178">
-        <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
@@ -5186,8 +5010,7 @@
         <v>11</v>
       </c>
       <c r="D179">
-        <f t="shared" ca="1" si="2"/>
-        <v>59</v>
+        <v>22</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
@@ -5201,8 +5024,7 @@
         <v>5</v>
       </c>
       <c r="D180">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
@@ -5216,8 +5038,7 @@
         <v>17</v>
       </c>
       <c r="D181">
-        <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <v>66</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
@@ -5231,8 +5052,7 @@
         <v>17</v>
       </c>
       <c r="D182">
-        <f t="shared" ca="1" si="2"/>
-        <v>76</v>
+        <v>54</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
@@ -5246,8 +5066,7 @@
         <v>17</v>
       </c>
       <c r="D183">
-        <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>87</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
@@ -5261,8 +5080,7 @@
         <v>25</v>
       </c>
       <c r="D184">
-        <f t="shared" ca="1" si="2"/>
-        <v>25</v>
+        <v>77</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
@@ -5276,8 +5094,7 @@
         <v>5</v>
       </c>
       <c r="D185">
-        <f t="shared" ca="1" si="2"/>
-        <v>7</v>
+        <v>75</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
@@ -5291,8 +5108,7 @@
         <v>8</v>
       </c>
       <c r="D186">
-        <f t="shared" ca="1" si="2"/>
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
@@ -5306,8 +5122,7 @@
         <v>17</v>
       </c>
       <c r="D187">
-        <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
@@ -5321,8 +5136,7 @@
         <v>25</v>
       </c>
       <c r="D188">
-        <f t="shared" ca="1" si="2"/>
-        <v>73</v>
+        <v>20</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
@@ -5336,8 +5150,7 @@
         <v>11</v>
       </c>
       <c r="D189">
-        <f t="shared" ca="1" si="2"/>
-        <v>63</v>
+        <v>26</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
@@ -5351,8 +5164,7 @@
         <v>8</v>
       </c>
       <c r="D190">
-        <f t="shared" ca="1" si="2"/>
-        <v>61</v>
+        <v>42</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
@@ -5366,8 +5178,7 @@
         <v>5</v>
       </c>
       <c r="D191">
-        <f t="shared" ca="1" si="2"/>
-        <v>85</v>
+        <v>6</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
@@ -5381,8 +5192,7 @@
         <v>25</v>
       </c>
       <c r="D192">
-        <f t="shared" ca="1" si="2"/>
-        <v>88</v>
+        <v>32</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
@@ -5396,8 +5206,7 @@
         <v>5</v>
       </c>
       <c r="D193">
-        <f t="shared" ca="1" si="2"/>
-        <v>34</v>
+        <v>9</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
@@ -5411,8 +5220,7 @@
         <v>25</v>
       </c>
       <c r="D194">
-        <f t="shared" ca="1" si="2"/>
-        <v>55</v>
+        <v>31</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
@@ -5426,8 +5234,7 @@
         <v>25</v>
       </c>
       <c r="D195">
-        <f t="shared" ref="D195:D258" ca="1" si="3">RANDBETWEEN(2,90)</f>
-        <v>75</v>
+        <v>14</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
@@ -5441,8 +5248,7 @@
         <v>17</v>
       </c>
       <c r="D196">
-        <f t="shared" ca="1" si="3"/>
-        <v>88</v>
+        <v>77</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
@@ -5456,8 +5262,7 @@
         <v>17</v>
       </c>
       <c r="D197">
-        <f t="shared" ca="1" si="3"/>
-        <v>42</v>
+        <v>60</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
@@ -5471,8 +5276,7 @@
         <v>5</v>
       </c>
       <c r="D198">
-        <f t="shared" ca="1" si="3"/>
-        <v>86</v>
+        <v>5</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
@@ -5486,8 +5290,7 @@
         <v>25</v>
       </c>
       <c r="D199">
-        <f t="shared" ca="1" si="3"/>
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
@@ -5501,8 +5304,7 @@
         <v>11</v>
       </c>
       <c r="D200">
-        <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
@@ -5516,8 +5318,7 @@
         <v>25</v>
       </c>
       <c r="D201">
-        <f t="shared" ca="1" si="3"/>
-        <v>45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
@@ -5531,8 +5332,7 @@
         <v>17</v>
       </c>
       <c r="D202">
-        <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
@@ -5546,8 +5346,7 @@
         <v>11</v>
       </c>
       <c r="D203">
-        <f t="shared" ca="1" si="3"/>
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
@@ -5561,8 +5360,7 @@
         <v>11</v>
       </c>
       <c r="D204">
-        <f t="shared" ca="1" si="3"/>
-        <v>72</v>
+        <v>36</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
@@ -5576,8 +5374,7 @@
         <v>17</v>
       </c>
       <c r="D205">
-        <f t="shared" ca="1" si="3"/>
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
@@ -5591,8 +5388,7 @@
         <v>25</v>
       </c>
       <c r="D206">
-        <f t="shared" ca="1" si="3"/>
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
@@ -5606,8 +5402,7 @@
         <v>11</v>
       </c>
       <c r="D207">
-        <f t="shared" ca="1" si="3"/>
-        <v>28</v>
+        <v>82</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
@@ -5621,8 +5416,7 @@
         <v>5</v>
       </c>
       <c r="D208">
-        <f t="shared" ca="1" si="3"/>
-        <v>87</v>
+        <v>55</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
@@ -5636,8 +5430,7 @@
         <v>5</v>
       </c>
       <c r="D209">
-        <f t="shared" ca="1" si="3"/>
-        <v>53</v>
+        <v>42</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
@@ -5651,8 +5444,7 @@
         <v>11</v>
       </c>
       <c r="D210">
-        <f t="shared" ca="1" si="3"/>
-        <v>67</v>
+        <v>12</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
@@ -5666,8 +5458,7 @@
         <v>8</v>
       </c>
       <c r="D211">
-        <f t="shared" ca="1" si="3"/>
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
@@ -5681,8 +5472,7 @@
         <v>5</v>
       </c>
       <c r="D212">
-        <f t="shared" ca="1" si="3"/>
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
@@ -5696,8 +5486,7 @@
         <v>25</v>
       </c>
       <c r="D213">
-        <f t="shared" ca="1" si="3"/>
-        <v>58</v>
+        <v>26</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
@@ -5711,8 +5500,7 @@
         <v>8</v>
       </c>
       <c r="D214">
-        <f t="shared" ca="1" si="3"/>
-        <v>77</v>
+        <v>37</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
@@ -5726,8 +5514,7 @@
         <v>8</v>
       </c>
       <c r="D215">
-        <f t="shared" ca="1" si="3"/>
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
@@ -5741,8 +5528,7 @@
         <v>17</v>
       </c>
       <c r="D216">
-        <f t="shared" ca="1" si="3"/>
-        <v>41</v>
+        <v>61</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
@@ -5756,8 +5542,7 @@
         <v>11</v>
       </c>
       <c r="D217">
-        <f t="shared" ca="1" si="3"/>
-        <v>15</v>
+        <v>48</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
@@ -5771,8 +5556,7 @@
         <v>17</v>
       </c>
       <c r="D218">
-        <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
@@ -5786,8 +5570,7 @@
         <v>5</v>
       </c>
       <c r="D219">
-        <f t="shared" ca="1" si="3"/>
-        <v>32</v>
+        <v>87</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
@@ -5801,8 +5584,7 @@
         <v>25</v>
       </c>
       <c r="D220">
-        <f t="shared" ca="1" si="3"/>
-        <v>79</v>
+        <v>23</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
@@ -5816,8 +5598,7 @@
         <v>17</v>
       </c>
       <c r="D221">
-        <f t="shared" ca="1" si="3"/>
-        <v>77</v>
+        <v>19</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
@@ -5831,8 +5612,7 @@
         <v>25</v>
       </c>
       <c r="D222">
-        <f t="shared" ca="1" si="3"/>
-        <v>78</v>
+        <v>31</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
@@ -5846,8 +5626,7 @@
         <v>17</v>
       </c>
       <c r="D223">
-        <f t="shared" ca="1" si="3"/>
-        <v>79</v>
+        <v>22</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
@@ -5861,8 +5640,7 @@
         <v>8</v>
       </c>
       <c r="D224">
-        <f t="shared" ca="1" si="3"/>
-        <v>33</v>
+        <v>51</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
@@ -5876,8 +5654,7 @@
         <v>8</v>
       </c>
       <c r="D225">
-        <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>47</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
@@ -5891,8 +5668,7 @@
         <v>8</v>
       </c>
       <c r="D226">
-        <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>65</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
@@ -5906,8 +5682,7 @@
         <v>5</v>
       </c>
       <c r="D227">
-        <f t="shared" ca="1" si="3"/>
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
@@ -5921,8 +5696,7 @@
         <v>8</v>
       </c>
       <c r="D228">
-        <f t="shared" ca="1" si="3"/>
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
@@ -5936,8 +5710,7 @@
         <v>11</v>
       </c>
       <c r="D229">
-        <f t="shared" ca="1" si="3"/>
-        <v>53</v>
+        <v>84</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
@@ -5951,8 +5724,7 @@
         <v>25</v>
       </c>
       <c r="D230">
-        <f t="shared" ca="1" si="3"/>
-        <v>30</v>
+        <v>67</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
@@ -5966,8 +5738,7 @@
         <v>17</v>
       </c>
       <c r="D231">
-        <f t="shared" ca="1" si="3"/>
-        <v>30</v>
+        <v>80</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
@@ -5981,8 +5752,7 @@
         <v>25</v>
       </c>
       <c r="D232">
-        <f t="shared" ca="1" si="3"/>
-        <v>61</v>
+        <v>3</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
@@ -5996,8 +5766,7 @@
         <v>11</v>
       </c>
       <c r="D233">
-        <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>48</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
@@ -6011,8 +5780,7 @@
         <v>17</v>
       </c>
       <c r="D234">
-        <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
@@ -6026,8 +5794,7 @@
         <v>11</v>
       </c>
       <c r="D235">
-        <f t="shared" ca="1" si="3"/>
-        <v>79</v>
+        <v>4</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
@@ -6041,8 +5808,7 @@
         <v>8</v>
       </c>
       <c r="D236">
-        <f t="shared" ca="1" si="3"/>
-        <v>30</v>
+        <v>64</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
@@ -6056,8 +5822,7 @@
         <v>5</v>
       </c>
       <c r="D237">
-        <f t="shared" ca="1" si="3"/>
-        <v>59</v>
+        <v>75</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
@@ -6071,8 +5836,7 @@
         <v>5</v>
       </c>
       <c r="D238">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
@@ -6086,8 +5850,7 @@
         <v>17</v>
       </c>
       <c r="D239">
-        <f t="shared" ca="1" si="3"/>
-        <v>24</v>
+        <v>51</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
@@ -6101,8 +5864,7 @@
         <v>5</v>
       </c>
       <c r="D240">
-        <f t="shared" ca="1" si="3"/>
-        <v>41</v>
+        <v>84</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
@@ -6116,8 +5878,7 @@
         <v>25</v>
       </c>
       <c r="D241">
-        <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>46</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
@@ -6131,8 +5892,7 @@
         <v>11</v>
       </c>
       <c r="D242">
-        <f t="shared" ca="1" si="3"/>
-        <v>42</v>
+        <v>33</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
@@ -6146,8 +5906,7 @@
         <v>11</v>
       </c>
       <c r="D243">
-        <f t="shared" ca="1" si="3"/>
-        <v>72</v>
+        <v>42</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
@@ -6161,8 +5920,7 @@
         <v>25</v>
       </c>
       <c r="D244">
-        <f t="shared" ca="1" si="3"/>
-        <v>44</v>
+        <v>15</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
@@ -6176,8 +5934,7 @@
         <v>5</v>
       </c>
       <c r="D245">
-        <f t="shared" ca="1" si="3"/>
-        <v>68</v>
+        <v>88</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
@@ -6191,8 +5948,7 @@
         <v>11</v>
       </c>
       <c r="D246">
-        <f t="shared" ca="1" si="3"/>
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
@@ -6206,8 +5962,7 @@
         <v>17</v>
       </c>
       <c r="D247">
-        <f t="shared" ca="1" si="3"/>
-        <v>62</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
@@ -6221,8 +5976,7 @@
         <v>11</v>
       </c>
       <c r="D248">
-        <f t="shared" ca="1" si="3"/>
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
@@ -6236,8 +5990,7 @@
         <v>11</v>
       </c>
       <c r="D249">
-        <f t="shared" ca="1" si="3"/>
-        <v>61</v>
+        <v>83</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
@@ -6251,8 +6004,7 @@
         <v>17</v>
       </c>
       <c r="D250">
-        <f t="shared" ca="1" si="3"/>
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
@@ -6266,8 +6018,7 @@
         <v>8</v>
       </c>
       <c r="D251">
-        <f t="shared" ca="1" si="3"/>
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
@@ -6281,8 +6032,7 @@
         <v>25</v>
       </c>
       <c r="D252">
-        <f t="shared" ca="1" si="3"/>
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
@@ -6296,8 +6046,7 @@
         <v>5</v>
       </c>
       <c r="D253">
-        <f t="shared" ca="1" si="3"/>
-        <v>39</v>
+        <v>55</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
@@ -6311,8 +6060,7 @@
         <v>8</v>
       </c>
       <c r="D254">
-        <f t="shared" ca="1" si="3"/>
-        <v>76</v>
+        <v>55</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
@@ -6326,8 +6074,7 @@
         <v>11</v>
       </c>
       <c r="D255">
-        <f t="shared" ca="1" si="3"/>
-        <v>77</v>
+        <v>48</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
@@ -6341,7 +6088,6 @@
         <v>8</v>
       </c>
       <c r="D256">
-        <f t="shared" ca="1" si="3"/>
         <v>22</v>
       </c>
     </row>
@@ -6356,8 +6102,7 @@
         <v>5</v>
       </c>
       <c r="D257">
-        <f t="shared" ca="1" si="3"/>
-        <v>8</v>
+        <v>88</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
@@ -6371,8 +6116,7 @@
         <v>8</v>
       </c>
       <c r="D258">
-        <f t="shared" ca="1" si="3"/>
-        <v>22</v>
+        <v>89</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
@@ -6386,8 +6130,7 @@
         <v>5</v>
       </c>
       <c r="D259">
-        <f t="shared" ref="D259:D322" ca="1" si="4">RANDBETWEEN(2,90)</f>
-        <v>90</v>
+        <v>49</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
@@ -6401,8 +6144,7 @@
         <v>17</v>
       </c>
       <c r="D260">
-        <f t="shared" ca="1" si="4"/>
-        <v>29</v>
+        <v>77</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
@@ -6416,8 +6158,7 @@
         <v>25</v>
       </c>
       <c r="D261">
-        <f t="shared" ca="1" si="4"/>
-        <v>32</v>
+        <v>70</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
@@ -6431,8 +6172,7 @@
         <v>25</v>
       </c>
       <c r="D262">
-        <f t="shared" ca="1" si="4"/>
-        <v>48</v>
+        <v>89</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
@@ -6446,8 +6186,7 @@
         <v>8</v>
       </c>
       <c r="D263">
-        <f t="shared" ca="1" si="4"/>
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
@@ -6461,8 +6200,7 @@
         <v>8</v>
       </c>
       <c r="D264">
-        <f t="shared" ca="1" si="4"/>
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
@@ -6476,8 +6214,7 @@
         <v>17</v>
       </c>
       <c r="D265">
-        <f t="shared" ca="1" si="4"/>
-        <v>76</v>
+        <v>88</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
@@ -6491,8 +6228,7 @@
         <v>11</v>
       </c>
       <c r="D266">
-        <f t="shared" ca="1" si="4"/>
-        <v>74</v>
+        <v>20</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
@@ -6506,8 +6242,7 @@
         <v>11</v>
       </c>
       <c r="D267">
-        <f t="shared" ca="1" si="4"/>
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
@@ -6521,8 +6256,7 @@
         <v>5</v>
       </c>
       <c r="D268">
-        <f t="shared" ca="1" si="4"/>
-        <v>54</v>
+        <v>23</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
@@ -6536,8 +6270,7 @@
         <v>5</v>
       </c>
       <c r="D269">
-        <f t="shared" ca="1" si="4"/>
-        <v>37</v>
+        <v>81</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
@@ -6551,8 +6284,7 @@
         <v>11</v>
       </c>
       <c r="D270">
-        <f t="shared" ca="1" si="4"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
@@ -6566,8 +6298,7 @@
         <v>25</v>
       </c>
       <c r="D271">
-        <f t="shared" ca="1" si="4"/>
-        <v>47</v>
+        <v>71</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
@@ -6581,8 +6312,7 @@
         <v>5</v>
       </c>
       <c r="D272">
-        <f t="shared" ca="1" si="4"/>
-        <v>56</v>
+        <v>80</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
@@ -6596,8 +6326,7 @@
         <v>11</v>
       </c>
       <c r="D273">
-        <f t="shared" ca="1" si="4"/>
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
@@ -6611,8 +6340,7 @@
         <v>17</v>
       </c>
       <c r="D274">
-        <f t="shared" ca="1" si="4"/>
-        <v>51</v>
+        <v>6</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
@@ -6626,8 +6354,7 @@
         <v>11</v>
       </c>
       <c r="D275">
-        <f t="shared" ca="1" si="4"/>
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
@@ -6641,8 +6368,7 @@
         <v>25</v>
       </c>
       <c r="D276">
-        <f t="shared" ca="1" si="4"/>
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
@@ -6656,8 +6382,7 @@
         <v>11</v>
       </c>
       <c r="D277">
-        <f t="shared" ca="1" si="4"/>
-        <v>88</v>
+        <v>47</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
@@ -6671,8 +6396,7 @@
         <v>8</v>
       </c>
       <c r="D278">
-        <f t="shared" ca="1" si="4"/>
-        <v>44</v>
+        <v>16</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
@@ -6686,8 +6410,7 @@
         <v>25</v>
       </c>
       <c r="D279">
-        <f t="shared" ca="1" si="4"/>
-        <v>88</v>
+        <v>48</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
@@ -6701,8 +6424,7 @@
         <v>8</v>
       </c>
       <c r="D280">
-        <f t="shared" ca="1" si="4"/>
-        <v>26</v>
+        <v>63</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
@@ -6716,8 +6438,7 @@
         <v>8</v>
       </c>
       <c r="D281">
-        <f t="shared" ca="1" si="4"/>
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
@@ -6731,8 +6452,7 @@
         <v>17</v>
       </c>
       <c r="D282">
-        <f t="shared" ca="1" si="4"/>
-        <v>68</v>
+        <v>90</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
@@ -6746,8 +6466,7 @@
         <v>25</v>
       </c>
       <c r="D283">
-        <f t="shared" ca="1" si="4"/>
-        <v>36</v>
+        <v>70</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
@@ -6761,8 +6480,7 @@
         <v>8</v>
       </c>
       <c r="D284">
-        <f t="shared" ca="1" si="4"/>
-        <v>86</v>
+        <v>62</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
@@ -6776,8 +6494,7 @@
         <v>11</v>
       </c>
       <c r="D285">
-        <f t="shared" ca="1" si="4"/>
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
@@ -6791,8 +6508,7 @@
         <v>5</v>
       </c>
       <c r="D286">
-        <f t="shared" ca="1" si="4"/>
-        <v>27</v>
+        <v>56</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
@@ -6806,8 +6522,7 @@
         <v>25</v>
       </c>
       <c r="D287">
-        <f t="shared" ca="1" si="4"/>
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
@@ -6821,8 +6536,7 @@
         <v>5</v>
       </c>
       <c r="D288">
-        <f t="shared" ca="1" si="4"/>
-        <v>10</v>
+        <v>46</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
@@ -6836,8 +6550,7 @@
         <v>25</v>
       </c>
       <c r="D289">
-        <f t="shared" ca="1" si="4"/>
-        <v>6</v>
+        <v>69</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
@@ -6851,8 +6564,7 @@
         <v>11</v>
       </c>
       <c r="D290">
-        <f t="shared" ca="1" si="4"/>
-        <v>28</v>
+        <v>85</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
@@ -6866,8 +6578,7 @@
         <v>5</v>
       </c>
       <c r="D291">
-        <f t="shared" ca="1" si="4"/>
-        <v>28</v>
+        <v>70</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
@@ -6881,8 +6592,7 @@
         <v>11</v>
       </c>
       <c r="D292">
-        <f t="shared" ca="1" si="4"/>
-        <v>77</v>
+        <v>21</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
@@ -6896,8 +6606,7 @@
         <v>17</v>
       </c>
       <c r="D293">
-        <f t="shared" ca="1" si="4"/>
-        <v>79</v>
+        <v>16</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
@@ -6911,8 +6620,7 @@
         <v>8</v>
       </c>
       <c r="D294">
-        <f t="shared" ca="1" si="4"/>
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
@@ -6926,8 +6634,7 @@
         <v>8</v>
       </c>
       <c r="D295">
-        <f t="shared" ca="1" si="4"/>
-        <v>86</v>
+        <v>63</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
@@ -6941,8 +6648,7 @@
         <v>25</v>
       </c>
       <c r="D296">
-        <f t="shared" ca="1" si="4"/>
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
@@ -6956,8 +6662,7 @@
         <v>8</v>
       </c>
       <c r="D297">
-        <f t="shared" ca="1" si="4"/>
-        <v>88</v>
+        <v>22</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
@@ -6971,8 +6676,7 @@
         <v>11</v>
       </c>
       <c r="D298">
-        <f t="shared" ca="1" si="4"/>
-        <v>46</v>
+        <v>12</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
@@ -6986,8 +6690,7 @@
         <v>5</v>
       </c>
       <c r="D299">
-        <f t="shared" ca="1" si="4"/>
-        <v>89</v>
+        <v>28</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
@@ -7001,8 +6704,7 @@
         <v>25</v>
       </c>
       <c r="D300">
-        <f t="shared" ca="1" si="4"/>
-        <v>86</v>
+        <v>64</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
@@ -7016,8 +6718,7 @@
         <v>11</v>
       </c>
       <c r="D301">
-        <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <v>33</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
@@ -7031,8 +6732,7 @@
         <v>8</v>
       </c>
       <c r="D302">
-        <f t="shared" ca="1" si="4"/>
-        <v>84</v>
+        <v>47</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
@@ -7046,8 +6746,7 @@
         <v>11</v>
       </c>
       <c r="D303">
-        <f t="shared" ca="1" si="4"/>
-        <v>60</v>
+        <v>39</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
@@ -7061,8 +6760,7 @@
         <v>17</v>
       </c>
       <c r="D304">
-        <f t="shared" ca="1" si="4"/>
-        <v>39</v>
+        <v>78</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
@@ -7076,8 +6774,7 @@
         <v>8</v>
       </c>
       <c r="D305">
-        <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
@@ -7091,8 +6788,7 @@
         <v>17</v>
       </c>
       <c r="D306">
-        <f t="shared" ca="1" si="4"/>
-        <v>75</v>
+        <v>52</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
@@ -7106,8 +6802,7 @@
         <v>11</v>
       </c>
       <c r="D307">
-        <f t="shared" ca="1" si="4"/>
-        <v>51</v>
+        <v>70</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
@@ -7121,8 +6816,7 @@
         <v>17</v>
       </c>
       <c r="D308">
-        <f t="shared" ca="1" si="4"/>
-        <v>56</v>
+        <v>87</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
@@ -7136,8 +6830,7 @@
         <v>8</v>
       </c>
       <c r="D309">
-        <f t="shared" ca="1" si="4"/>
-        <v>15</v>
+        <v>88</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
@@ -7151,8 +6844,7 @@
         <v>5</v>
       </c>
       <c r="D310">
-        <f t="shared" ca="1" si="4"/>
-        <v>88</v>
+        <v>3</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
@@ -7166,8 +6858,7 @@
         <v>17</v>
       </c>
       <c r="D311">
-        <f t="shared" ca="1" si="4"/>
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
@@ -7181,8 +6872,7 @@
         <v>11</v>
       </c>
       <c r="D312">
-        <f t="shared" ca="1" si="4"/>
-        <v>80</v>
+        <v>6</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
@@ -7196,8 +6886,7 @@
         <v>5</v>
       </c>
       <c r="D313">
-        <f t="shared" ca="1" si="4"/>
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
@@ -7211,8 +6900,7 @@
         <v>11</v>
       </c>
       <c r="D314">
-        <f t="shared" ca="1" si="4"/>
-        <v>51</v>
+        <v>18</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
@@ -7226,8 +6914,7 @@
         <v>25</v>
       </c>
       <c r="D315">
-        <f t="shared" ca="1" si="4"/>
-        <v>81</v>
+        <v>47</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
@@ -7241,8 +6928,7 @@
         <v>17</v>
       </c>
       <c r="D316">
-        <f t="shared" ca="1" si="4"/>
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
@@ -7256,8 +6942,7 @@
         <v>17</v>
       </c>
       <c r="D317">
-        <f t="shared" ca="1" si="4"/>
-        <v>65</v>
+        <v>14</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
@@ -7271,8 +6956,7 @@
         <v>17</v>
       </c>
       <c r="D318">
-        <f t="shared" ca="1" si="4"/>
-        <v>13</v>
+        <v>56</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
@@ -7286,8 +6970,7 @@
         <v>25</v>
       </c>
       <c r="D319">
-        <f t="shared" ca="1" si="4"/>
-        <v>11</v>
+        <v>28</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
@@ -7301,8 +6984,7 @@
         <v>11</v>
       </c>
       <c r="D320">
-        <f t="shared" ca="1" si="4"/>
-        <v>52</v>
+        <v>81</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
@@ -7316,8 +6998,7 @@
         <v>11</v>
       </c>
       <c r="D321">
-        <f t="shared" ca="1" si="4"/>
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
@@ -7331,8 +7012,7 @@
         <v>11</v>
       </c>
       <c r="D322">
-        <f t="shared" ca="1" si="4"/>
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.3">
@@ -7346,8 +7026,7 @@
         <v>8</v>
       </c>
       <c r="D323">
-        <f t="shared" ref="D323:D386" ca="1" si="5">RANDBETWEEN(2,90)</f>
-        <v>82</v>
+        <v>17</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
@@ -7361,8 +7040,7 @@
         <v>8</v>
       </c>
       <c r="D324">
-        <f t="shared" ca="1" si="5"/>
-        <v>27</v>
+        <v>76</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
@@ -7376,8 +7054,7 @@
         <v>11</v>
       </c>
       <c r="D325">
-        <f t="shared" ca="1" si="5"/>
-        <v>14</v>
+        <v>67</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.3">
@@ -7391,8 +7068,7 @@
         <v>11</v>
       </c>
       <c r="D326">
-        <f t="shared" ca="1" si="5"/>
-        <v>90</v>
+        <v>41</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.3">
@@ -7406,8 +7082,7 @@
         <v>17</v>
       </c>
       <c r="D327">
-        <f t="shared" ca="1" si="5"/>
-        <v>49</v>
+        <v>78</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.3">
@@ -7421,8 +7096,7 @@
         <v>11</v>
       </c>
       <c r="D328">
-        <f t="shared" ca="1" si="5"/>
-        <v>47</v>
+        <v>22</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.3">
@@ -7436,8 +7110,7 @@
         <v>25</v>
       </c>
       <c r="D329">
-        <f t="shared" ca="1" si="5"/>
-        <v>78</v>
+        <v>65</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.3">
@@ -7451,8 +7124,7 @@
         <v>5</v>
       </c>
       <c r="D330">
-        <f t="shared" ca="1" si="5"/>
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.3">
@@ -7466,8 +7138,7 @@
         <v>17</v>
       </c>
       <c r="D331">
-        <f t="shared" ca="1" si="5"/>
-        <v>49</v>
+        <v>23</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
@@ -7481,8 +7152,7 @@
         <v>17</v>
       </c>
       <c r="D332">
-        <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>5</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
@@ -7496,8 +7166,7 @@
         <v>5</v>
       </c>
       <c r="D333">
-        <f t="shared" ca="1" si="5"/>
-        <v>71</v>
+        <v>52</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
@@ -7511,8 +7180,7 @@
         <v>25</v>
       </c>
       <c r="D334">
-        <f t="shared" ca="1" si="5"/>
-        <v>78</v>
+        <v>26</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.3">
@@ -7526,8 +7194,7 @@
         <v>25</v>
       </c>
       <c r="D335">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>86</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
@@ -7541,8 +7208,7 @@
         <v>11</v>
       </c>
       <c r="D336">
-        <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>81</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.3">
@@ -7556,8 +7222,7 @@
         <v>8</v>
       </c>
       <c r="D337">
-        <f t="shared" ca="1" si="5"/>
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.3">
@@ -7571,8 +7236,7 @@
         <v>25</v>
       </c>
       <c r="D338">
-        <f t="shared" ca="1" si="5"/>
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.3">
@@ -7586,8 +7250,7 @@
         <v>25</v>
       </c>
       <c r="D339">
-        <f t="shared" ca="1" si="5"/>
-        <v>64</v>
+        <v>36</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
@@ -7601,8 +7264,7 @@
         <v>5</v>
       </c>
       <c r="D340">
-        <f t="shared" ca="1" si="5"/>
-        <v>72</v>
+        <v>28</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.3">
@@ -7616,8 +7278,7 @@
         <v>25</v>
       </c>
       <c r="D341">
-        <f t="shared" ca="1" si="5"/>
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.3">
@@ -7631,8 +7292,7 @@
         <v>5</v>
       </c>
       <c r="D342">
-        <f t="shared" ca="1" si="5"/>
-        <v>62</v>
+        <v>28</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.3">
@@ -7646,8 +7306,7 @@
         <v>17</v>
       </c>
       <c r="D343">
-        <f t="shared" ca="1" si="5"/>
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.3">
@@ -7661,8 +7320,7 @@
         <v>11</v>
       </c>
       <c r="D344">
-        <f t="shared" ca="1" si="5"/>
-        <v>44</v>
+        <v>33</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.3">
@@ -7676,8 +7334,7 @@
         <v>5</v>
       </c>
       <c r="D345">
-        <f t="shared" ca="1" si="5"/>
-        <v>27</v>
+        <v>87</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.3">
@@ -7691,8 +7348,7 @@
         <v>11</v>
       </c>
       <c r="D346">
-        <f t="shared" ca="1" si="5"/>
-        <v>21</v>
+        <v>75</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.3">
@@ -7706,8 +7362,7 @@
         <v>17</v>
       </c>
       <c r="D347">
-        <f t="shared" ca="1" si="5"/>
-        <v>83</v>
+        <v>55</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.3">
@@ -7721,8 +7376,7 @@
         <v>8</v>
       </c>
       <c r="D348">
-        <f t="shared" ca="1" si="5"/>
-        <v>13</v>
+        <v>60</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.3">
@@ -7736,8 +7390,7 @@
         <v>8</v>
       </c>
       <c r="D349">
-        <f t="shared" ca="1" si="5"/>
-        <v>86</v>
+        <v>48</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.3">
@@ -7751,8 +7404,7 @@
         <v>11</v>
       </c>
       <c r="D350">
-        <f t="shared" ca="1" si="5"/>
-        <v>31</v>
+        <v>86</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.3">
@@ -7766,8 +7418,7 @@
         <v>11</v>
       </c>
       <c r="D351">
-        <f t="shared" ca="1" si="5"/>
-        <v>78</v>
+        <v>17</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.3">
@@ -7781,8 +7432,7 @@
         <v>25</v>
       </c>
       <c r="D352">
-        <f t="shared" ca="1" si="5"/>
-        <v>37</v>
+        <v>52</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.3">
@@ -7796,8 +7446,7 @@
         <v>11</v>
       </c>
       <c r="D353">
-        <f t="shared" ca="1" si="5"/>
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.3">
@@ -7811,8 +7460,7 @@
         <v>8</v>
       </c>
       <c r="D354">
-        <f t="shared" ca="1" si="5"/>
-        <v>13</v>
+        <v>82</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.3">
@@ -7826,8 +7474,7 @@
         <v>25</v>
       </c>
       <c r="D355">
-        <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.3">
@@ -7841,8 +7488,7 @@
         <v>17</v>
       </c>
       <c r="D356">
-        <f t="shared" ca="1" si="5"/>
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.3">
@@ -7856,8 +7502,7 @@
         <v>25</v>
       </c>
       <c r="D357">
-        <f t="shared" ca="1" si="5"/>
-        <v>6</v>
+        <v>49</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.3">
@@ -7871,8 +7516,7 @@
         <v>5</v>
       </c>
       <c r="D358">
-        <f t="shared" ca="1" si="5"/>
-        <v>90</v>
+        <v>32</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.3">
@@ -7886,8 +7530,7 @@
         <v>25</v>
       </c>
       <c r="D359">
-        <f t="shared" ca="1" si="5"/>
-        <v>52</v>
+        <v>4</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.3">
@@ -7901,8 +7544,7 @@
         <v>25</v>
       </c>
       <c r="D360">
-        <f t="shared" ca="1" si="5"/>
-        <v>51</v>
+        <v>28</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.3">
@@ -7916,8 +7558,7 @@
         <v>25</v>
       </c>
       <c r="D361">
-        <f t="shared" ca="1" si="5"/>
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.3">
@@ -7931,8 +7572,7 @@
         <v>25</v>
       </c>
       <c r="D362">
-        <f t="shared" ca="1" si="5"/>
-        <v>89</v>
+        <v>26</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.3">
@@ -7946,8 +7586,7 @@
         <v>8</v>
       </c>
       <c r="D363">
-        <f t="shared" ca="1" si="5"/>
-        <v>66</v>
+        <v>24</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.3">
@@ -7961,8 +7600,7 @@
         <v>11</v>
       </c>
       <c r="D364">
-        <f t="shared" ca="1" si="5"/>
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.3">
@@ -7976,8 +7614,7 @@
         <v>25</v>
       </c>
       <c r="D365">
-        <f t="shared" ca="1" si="5"/>
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.3">
@@ -7991,8 +7628,7 @@
         <v>5</v>
       </c>
       <c r="D366">
-        <f t="shared" ca="1" si="5"/>
-        <v>78</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.3">
@@ -8006,8 +7642,7 @@
         <v>8</v>
       </c>
       <c r="D367">
-        <f t="shared" ca="1" si="5"/>
-        <v>61</v>
+        <v>74</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.3">
@@ -8021,8 +7656,7 @@
         <v>25</v>
       </c>
       <c r="D368">
-        <f t="shared" ca="1" si="5"/>
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.3">
@@ -8036,8 +7670,7 @@
         <v>25</v>
       </c>
       <c r="D369">
-        <f t="shared" ca="1" si="5"/>
-        <v>17</v>
+        <v>66</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.3">
@@ -8051,8 +7684,7 @@
         <v>8</v>
       </c>
       <c r="D370">
-        <f t="shared" ca="1" si="5"/>
-        <v>41</v>
+        <v>50</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.3">
@@ -8066,8 +7698,7 @@
         <v>25</v>
       </c>
       <c r="D371">
-        <f t="shared" ca="1" si="5"/>
-        <v>42</v>
+        <v>79</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.3">
@@ -8081,8 +7712,7 @@
         <v>5</v>
       </c>
       <c r="D372">
-        <f t="shared" ca="1" si="5"/>
-        <v>81</v>
+        <v>40</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.3">
@@ -8096,8 +7726,7 @@
         <v>8</v>
       </c>
       <c r="D373">
-        <f t="shared" ca="1" si="5"/>
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.3">
@@ -8111,8 +7740,7 @@
         <v>25</v>
       </c>
       <c r="D374">
-        <f t="shared" ca="1" si="5"/>
-        <v>87</v>
+        <v>25</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.3">
@@ -8126,8 +7754,7 @@
         <v>25</v>
       </c>
       <c r="D375">
-        <f t="shared" ca="1" si="5"/>
-        <v>27</v>
+        <v>67</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.3">
@@ -8141,8 +7768,7 @@
         <v>11</v>
       </c>
       <c r="D376">
-        <f t="shared" ca="1" si="5"/>
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.3">
@@ -8156,8 +7782,7 @@
         <v>25</v>
       </c>
       <c r="D377">
-        <f t="shared" ca="1" si="5"/>
-        <v>36</v>
+        <v>75</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.3">
@@ -8171,8 +7796,7 @@
         <v>25</v>
       </c>
       <c r="D378">
-        <f t="shared" ca="1" si="5"/>
-        <v>62</v>
+        <v>48</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.3">
@@ -8186,8 +7810,7 @@
         <v>25</v>
       </c>
       <c r="D379">
-        <f t="shared" ca="1" si="5"/>
-        <v>40</v>
+        <v>22</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.3">
@@ -8201,8 +7824,7 @@
         <v>17</v>
       </c>
       <c r="D380">
-        <f t="shared" ca="1" si="5"/>
-        <v>75</v>
+        <v>18</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.3">
@@ -8216,8 +7838,7 @@
         <v>5</v>
       </c>
       <c r="D381">
-        <f t="shared" ca="1" si="5"/>
-        <v>63</v>
+        <v>34</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.3">
@@ -8231,8 +7852,7 @@
         <v>11</v>
       </c>
       <c r="D382">
-        <f t="shared" ca="1" si="5"/>
-        <v>48</v>
+        <v>81</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.3">
@@ -8246,8 +7866,7 @@
         <v>25</v>
       </c>
       <c r="D383">
-        <f t="shared" ca="1" si="5"/>
-        <v>90</v>
+        <v>19</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.3">
@@ -8261,8 +7880,7 @@
         <v>8</v>
       </c>
       <c r="D384">
-        <f t="shared" ca="1" si="5"/>
-        <v>57</v>
+        <v>85</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.3">
@@ -8276,8 +7894,7 @@
         <v>5</v>
       </c>
       <c r="D385">
-        <f t="shared" ca="1" si="5"/>
-        <v>77</v>
+        <v>31</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.3">
@@ -8291,7 +7908,6 @@
         <v>17</v>
       </c>
       <c r="D386">
-        <f t="shared" ca="1" si="5"/>
         <v>54</v>
       </c>
     </row>
@@ -8306,8 +7922,7 @@
         <v>17</v>
       </c>
       <c r="D387">
-        <f t="shared" ref="D387:D450" ca="1" si="6">RANDBETWEEN(2,90)</f>
-        <v>66</v>
+        <v>38</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.3">
@@ -8321,8 +7936,7 @@
         <v>17</v>
       </c>
       <c r="D388">
-        <f t="shared" ca="1" si="6"/>
-        <v>55</v>
+        <v>15</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.3">
@@ -8336,8 +7950,7 @@
         <v>8</v>
       </c>
       <c r="D389">
-        <f t="shared" ca="1" si="6"/>
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.3">
@@ -8351,8 +7964,7 @@
         <v>25</v>
       </c>
       <c r="D390">
-        <f t="shared" ca="1" si="6"/>
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.3">
@@ -8366,8 +7978,7 @@
         <v>25</v>
       </c>
       <c r="D391">
-        <f t="shared" ca="1" si="6"/>
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.3">
@@ -8381,8 +7992,7 @@
         <v>17</v>
       </c>
       <c r="D392">
-        <f t="shared" ca="1" si="6"/>
-        <v>45</v>
+        <v>3</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.3">
@@ -8396,8 +8006,7 @@
         <v>5</v>
       </c>
       <c r="D393">
-        <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.3">
@@ -8411,8 +8020,7 @@
         <v>25</v>
       </c>
       <c r="D394">
-        <f t="shared" ca="1" si="6"/>
-        <v>73</v>
+        <v>15</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.3">
@@ -8426,8 +8034,7 @@
         <v>11</v>
       </c>
       <c r="D395">
-        <f t="shared" ca="1" si="6"/>
-        <v>29</v>
+        <v>76</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.3">
@@ -8441,8 +8048,7 @@
         <v>25</v>
       </c>
       <c r="D396">
-        <f t="shared" ca="1" si="6"/>
-        <v>71</v>
+        <v>41</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.3">
@@ -8456,8 +8062,7 @@
         <v>17</v>
       </c>
       <c r="D397">
-        <f t="shared" ca="1" si="6"/>
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.3">
@@ -8471,8 +8076,7 @@
         <v>5</v>
       </c>
       <c r="D398">
-        <f t="shared" ca="1" si="6"/>
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.3">
@@ -8486,8 +8090,7 @@
         <v>11</v>
       </c>
       <c r="D399">
-        <f t="shared" ca="1" si="6"/>
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.3">
@@ -8501,8 +8104,7 @@
         <v>5</v>
       </c>
       <c r="D400">
-        <f t="shared" ca="1" si="6"/>
-        <v>79</v>
+        <v>37</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.3">
@@ -8516,8 +8118,7 @@
         <v>11</v>
       </c>
       <c r="D401">
-        <f t="shared" ca="1" si="6"/>
-        <v>78</v>
+        <v>15</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.3">
@@ -8531,8 +8132,7 @@
         <v>11</v>
       </c>
       <c r="D402">
-        <f t="shared" ca="1" si="6"/>
-        <v>34</v>
+        <v>19</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.3">
@@ -8546,8 +8146,7 @@
         <v>17</v>
       </c>
       <c r="D403">
-        <f t="shared" ca="1" si="6"/>
-        <v>30</v>
+        <v>37</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.3">
@@ -8561,8 +8160,7 @@
         <v>8</v>
       </c>
       <c r="D404">
-        <f t="shared" ca="1" si="6"/>
-        <v>19</v>
+        <v>72</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.3">
@@ -8576,8 +8174,7 @@
         <v>25</v>
       </c>
       <c r="D405">
-        <f t="shared" ca="1" si="6"/>
-        <v>72</v>
+        <v>56</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.3">
@@ -8591,8 +8188,7 @@
         <v>25</v>
       </c>
       <c r="D406">
-        <f t="shared" ca="1" si="6"/>
-        <v>76</v>
+        <v>42</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.3">
@@ -8606,8 +8202,7 @@
         <v>11</v>
       </c>
       <c r="D407">
-        <f t="shared" ca="1" si="6"/>
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.3">
@@ -8621,8 +8216,7 @@
         <v>8</v>
       </c>
       <c r="D408">
-        <f t="shared" ca="1" si="6"/>
-        <v>78</v>
+        <v>24</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.3">
@@ -8636,8 +8230,7 @@
         <v>8</v>
       </c>
       <c r="D409">
-        <f t="shared" ca="1" si="6"/>
-        <v>74</v>
+        <v>61</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.3">
@@ -8651,8 +8244,7 @@
         <v>8</v>
       </c>
       <c r="D410">
-        <f t="shared" ca="1" si="6"/>
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.3">
@@ -8666,8 +8258,7 @@
         <v>11</v>
       </c>
       <c r="D411">
-        <f t="shared" ca="1" si="6"/>
-        <v>15</v>
+        <v>76</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.3">
@@ -8681,8 +8272,7 @@
         <v>5</v>
       </c>
       <c r="D412">
-        <f t="shared" ca="1" si="6"/>
-        <v>13</v>
+        <v>54</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.3">
@@ -8696,8 +8286,7 @@
         <v>17</v>
       </c>
       <c r="D413">
-        <f t="shared" ca="1" si="6"/>
-        <v>63</v>
+        <v>26</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.3">
@@ -8711,8 +8300,7 @@
         <v>25</v>
       </c>
       <c r="D414">
-        <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>64</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.3">
@@ -8726,8 +8314,7 @@
         <v>25</v>
       </c>
       <c r="D415">
-        <f t="shared" ca="1" si="6"/>
-        <v>66</v>
+        <v>90</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.3">
@@ -8741,8 +8328,7 @@
         <v>5</v>
       </c>
       <c r="D416">
-        <f t="shared" ca="1" si="6"/>
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.3">
@@ -8756,8 +8342,7 @@
         <v>17</v>
       </c>
       <c r="D417">
-        <f t="shared" ca="1" si="6"/>
-        <v>90</v>
+        <v>24</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.3">
@@ -8771,8 +8356,7 @@
         <v>8</v>
       </c>
       <c r="D418">
-        <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>82</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.3">
@@ -8786,8 +8370,7 @@
         <v>17</v>
       </c>
       <c r="D419">
-        <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>55</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.3">
@@ -8801,8 +8384,7 @@
         <v>25</v>
       </c>
       <c r="D420">
-        <f t="shared" ca="1" si="6"/>
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.3">
@@ -8816,8 +8398,7 @@
         <v>8</v>
       </c>
       <c r="D421">
-        <f t="shared" ca="1" si="6"/>
-        <v>61</v>
+        <v>10</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.3">
@@ -8831,8 +8412,7 @@
         <v>11</v>
       </c>
       <c r="D422">
-        <f t="shared" ca="1" si="6"/>
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.3">
@@ -8846,8 +8426,7 @@
         <v>25</v>
       </c>
       <c r="D423">
-        <f t="shared" ca="1" si="6"/>
-        <v>71</v>
+        <v>84</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.3">
@@ -8861,8 +8440,7 @@
         <v>8</v>
       </c>
       <c r="D424">
-        <f t="shared" ca="1" si="6"/>
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.3">
@@ -8876,8 +8454,7 @@
         <v>25</v>
       </c>
       <c r="D425">
-        <f t="shared" ca="1" si="6"/>
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.3">
@@ -8891,8 +8468,7 @@
         <v>5</v>
       </c>
       <c r="D426">
-        <f t="shared" ca="1" si="6"/>
-        <v>49</v>
+        <v>84</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.3">
@@ -8906,8 +8482,7 @@
         <v>8</v>
       </c>
       <c r="D427">
-        <f t="shared" ca="1" si="6"/>
-        <v>11</v>
+        <v>58</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.3">
@@ -8921,8 +8496,7 @@
         <v>5</v>
       </c>
       <c r="D428">
-        <f t="shared" ca="1" si="6"/>
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.3">
@@ -8936,8 +8510,7 @@
         <v>25</v>
       </c>
       <c r="D429">
-        <f t="shared" ca="1" si="6"/>
-        <v>68</v>
+        <v>21</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.3">
@@ -8951,8 +8524,7 @@
         <v>11</v>
       </c>
       <c r="D430">
-        <f t="shared" ca="1" si="6"/>
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.3">
@@ -8966,8 +8538,7 @@
         <v>11</v>
       </c>
       <c r="D431">
-        <f t="shared" ca="1" si="6"/>
-        <v>46</v>
+        <v>79</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.3">
@@ -8981,8 +8552,7 @@
         <v>25</v>
       </c>
       <c r="D432">
-        <f t="shared" ca="1" si="6"/>
-        <v>16</v>
+        <v>65</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.3">
@@ -8996,8 +8566,7 @@
         <v>11</v>
       </c>
       <c r="D433">
-        <f t="shared" ca="1" si="6"/>
-        <v>74</v>
+        <v>6</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.3">
@@ -9011,8 +8580,7 @@
         <v>5</v>
       </c>
       <c r="D434">
-        <f t="shared" ca="1" si="6"/>
-        <v>75</v>
+        <v>44</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.3">
@@ -9026,8 +8594,7 @@
         <v>8</v>
       </c>
       <c r="D435">
-        <f t="shared" ca="1" si="6"/>
-        <v>13</v>
+        <v>46</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.3">
@@ -9041,8 +8608,7 @@
         <v>17</v>
       </c>
       <c r="D436">
-        <f t="shared" ca="1" si="6"/>
-        <v>49</v>
+        <v>81</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.3">
@@ -9056,8 +8622,7 @@
         <v>17</v>
       </c>
       <c r="D437">
-        <f t="shared" ca="1" si="6"/>
-        <v>72</v>
+        <v>81</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.3">
@@ -9071,8 +8636,7 @@
         <v>5</v>
       </c>
       <c r="D438">
-        <f t="shared" ca="1" si="6"/>
-        <v>64</v>
+        <v>24</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.3">
@@ -9086,8 +8650,7 @@
         <v>25</v>
       </c>
       <c r="D439">
-        <f t="shared" ca="1" si="6"/>
-        <v>7</v>
+        <v>55</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.3">
@@ -9101,8 +8664,7 @@
         <v>5</v>
       </c>
       <c r="D440">
-        <f t="shared" ca="1" si="6"/>
-        <v>16</v>
+        <v>84</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.3">
@@ -9116,8 +8678,7 @@
         <v>8</v>
       </c>
       <c r="D441">
-        <f t="shared" ca="1" si="6"/>
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.3">
@@ -9131,8 +8692,7 @@
         <v>25</v>
       </c>
       <c r="D442">
-        <f t="shared" ca="1" si="6"/>
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.3">
@@ -9146,8 +8706,7 @@
         <v>5</v>
       </c>
       <c r="D443">
-        <f t="shared" ca="1" si="6"/>
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.3">
@@ -9161,8 +8720,7 @@
         <v>11</v>
       </c>
       <c r="D444">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
+        <v>86</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.3">
@@ -9176,8 +8734,7 @@
         <v>5</v>
       </c>
       <c r="D445">
-        <f t="shared" ca="1" si="6"/>
-        <v>52</v>
+        <v>30</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.3">
@@ -9191,8 +8748,7 @@
         <v>5</v>
       </c>
       <c r="D446">
-        <f t="shared" ca="1" si="6"/>
-        <v>37</v>
+        <v>45</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.3">
@@ -9206,8 +8762,7 @@
         <v>17</v>
       </c>
       <c r="D447">
-        <f t="shared" ca="1" si="6"/>
-        <v>18</v>
+        <v>65</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.3">
@@ -9221,8 +8776,7 @@
         <v>17</v>
       </c>
       <c r="D448">
-        <f t="shared" ca="1" si="6"/>
-        <v>85</v>
+        <v>68</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.3">
@@ -9236,8 +8790,7 @@
         <v>25</v>
       </c>
       <c r="D449">
-        <f t="shared" ca="1" si="6"/>
-        <v>67</v>
+        <v>87</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.3">
@@ -9251,8 +8804,7 @@
         <v>17</v>
       </c>
       <c r="D450">
-        <f t="shared" ca="1" si="6"/>
-        <v>88</v>
+        <v>28</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.3">
@@ -9266,8 +8818,7 @@
         <v>17</v>
       </c>
       <c r="D451">
-        <f t="shared" ref="D451:D514" ca="1" si="7">RANDBETWEEN(2,90)</f>
-        <v>48</v>
+        <v>4</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.3">
@@ -9281,8 +8832,7 @@
         <v>11</v>
       </c>
       <c r="D452">
-        <f t="shared" ca="1" si="7"/>
-        <v>74</v>
+        <v>26</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.3">
@@ -9296,8 +8846,7 @@
         <v>17</v>
       </c>
       <c r="D453">
-        <f t="shared" ca="1" si="7"/>
-        <v>63</v>
+        <v>33</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.3">
@@ -9311,8 +8860,7 @@
         <v>8</v>
       </c>
       <c r="D454">
-        <f t="shared" ca="1" si="7"/>
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.3">
@@ -9326,8 +8874,7 @@
         <v>11</v>
       </c>
       <c r="D455">
-        <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.3">
@@ -9341,8 +8888,7 @@
         <v>8</v>
       </c>
       <c r="D456">
-        <f t="shared" ca="1" si="7"/>
-        <v>65</v>
+        <v>42</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.3">
@@ -9356,8 +8902,7 @@
         <v>5</v>
       </c>
       <c r="D457">
-        <f t="shared" ca="1" si="7"/>
-        <v>21</v>
+        <v>76</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.3">
@@ -9371,8 +8916,7 @@
         <v>25</v>
       </c>
       <c r="D458">
-        <f t="shared" ca="1" si="7"/>
-        <v>9</v>
+        <v>87</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.3">
@@ -9386,8 +8930,7 @@
         <v>25</v>
       </c>
       <c r="D459">
-        <f t="shared" ca="1" si="7"/>
-        <v>86</v>
+        <v>17</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.3">
@@ -9401,8 +8944,7 @@
         <v>25</v>
       </c>
       <c r="D460">
-        <f t="shared" ca="1" si="7"/>
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.3">
@@ -9416,8 +8958,7 @@
         <v>25</v>
       </c>
       <c r="D461">
-        <f t="shared" ca="1" si="7"/>
-        <v>19</v>
+        <v>46</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.3">
@@ -9431,8 +8972,7 @@
         <v>5</v>
       </c>
       <c r="D462">
-        <f t="shared" ca="1" si="7"/>
-        <v>58</v>
+        <v>28</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.3">
@@ -9446,8 +8986,7 @@
         <v>11</v>
       </c>
       <c r="D463">
-        <f t="shared" ca="1" si="7"/>
-        <v>49</v>
+        <v>15</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.3">
@@ -9461,8 +9000,7 @@
         <v>25</v>
       </c>
       <c r="D464">
-        <f t="shared" ca="1" si="7"/>
-        <v>56</v>
+        <v>87</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.3">
@@ -9476,8 +9014,7 @@
         <v>25</v>
       </c>
       <c r="D465">
-        <f t="shared" ca="1" si="7"/>
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.3">
@@ -9491,8 +9028,7 @@
         <v>11</v>
       </c>
       <c r="D466">
-        <f t="shared" ca="1" si="7"/>
-        <v>16</v>
+        <v>87</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.3">
@@ -9506,8 +9042,7 @@
         <v>5</v>
       </c>
       <c r="D467">
-        <f t="shared" ca="1" si="7"/>
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.3">
@@ -9521,8 +9056,7 @@
         <v>25</v>
       </c>
       <c r="D468">
-        <f t="shared" ca="1" si="7"/>
-        <v>30</v>
+        <v>78</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.3">
@@ -9536,8 +9070,7 @@
         <v>25</v>
       </c>
       <c r="D469">
-        <f t="shared" ca="1" si="7"/>
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.3">
@@ -9551,8 +9084,7 @@
         <v>25</v>
       </c>
       <c r="D470">
-        <f t="shared" ca="1" si="7"/>
-        <v>37</v>
+        <v>20</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.3">
@@ -9566,8 +9098,7 @@
         <v>25</v>
       </c>
       <c r="D471">
-        <f t="shared" ca="1" si="7"/>
-        <v>84</v>
+        <v>52</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.3">
@@ -9581,8 +9112,7 @@
         <v>5</v>
       </c>
       <c r="D472">
-        <f t="shared" ca="1" si="7"/>
-        <v>56</v>
+        <v>34</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.3">
@@ -9596,8 +9126,7 @@
         <v>11</v>
       </c>
       <c r="D473">
-        <f t="shared" ca="1" si="7"/>
-        <v>56</v>
+        <v>67</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.3">
@@ -9611,8 +9140,7 @@
         <v>11</v>
       </c>
       <c r="D474">
-        <f t="shared" ca="1" si="7"/>
-        <v>52</v>
+        <v>89</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.3">
@@ -9626,8 +9154,7 @@
         <v>5</v>
       </c>
       <c r="D475">
-        <f t="shared" ca="1" si="7"/>
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.3">
@@ -9641,8 +9168,7 @@
         <v>8</v>
       </c>
       <c r="D476">
-        <f t="shared" ca="1" si="7"/>
-        <v>67</v>
+        <v>26</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.3">
@@ -9656,8 +9182,7 @@
         <v>8</v>
       </c>
       <c r="D477">
-        <f t="shared" ca="1" si="7"/>
-        <v>90</v>
+        <v>34</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.3">
@@ -9671,8 +9196,7 @@
         <v>25</v>
       </c>
       <c r="D478">
-        <f t="shared" ca="1" si="7"/>
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="479" spans="1:4" x14ac:dyDescent="0.3">
@@ -9686,8 +9210,7 @@
         <v>11</v>
       </c>
       <c r="D479">
-        <f t="shared" ca="1" si="7"/>
-        <v>83</v>
+        <v>48</v>
       </c>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.3">
@@ -9701,8 +9224,7 @@
         <v>25</v>
       </c>
       <c r="D480">
-        <f t="shared" ca="1" si="7"/>
-        <v>19</v>
+        <v>76</v>
       </c>
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.3">
@@ -9716,8 +9238,7 @@
         <v>25</v>
       </c>
       <c r="D481">
-        <f t="shared" ca="1" si="7"/>
-        <v>69</v>
+        <v>33</v>
       </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.3">
@@ -9731,8 +9252,7 @@
         <v>11</v>
       </c>
       <c r="D482">
-        <f t="shared" ca="1" si="7"/>
-        <v>53</v>
+        <v>76</v>
       </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.3">
@@ -9746,8 +9266,7 @@
         <v>25</v>
       </c>
       <c r="D483">
-        <f t="shared" ca="1" si="7"/>
-        <v>7</v>
+        <v>29</v>
       </c>
     </row>
     <row r="484" spans="1:4" x14ac:dyDescent="0.3">
@@ -9761,8 +9280,7 @@
         <v>11</v>
       </c>
       <c r="D484">
-        <f t="shared" ca="1" si="7"/>
-        <v>86</v>
+        <v>30</v>
       </c>
     </row>
     <row r="485" spans="1:4" x14ac:dyDescent="0.3">
@@ -9776,8 +9294,7 @@
         <v>5</v>
       </c>
       <c r="D485">
-        <f t="shared" ca="1" si="7"/>
-        <v>80</v>
+        <v>24</v>
       </c>
     </row>
     <row r="486" spans="1:4" x14ac:dyDescent="0.3">
@@ -9791,8 +9308,7 @@
         <v>25</v>
       </c>
       <c r="D486">
-        <f t="shared" ca="1" si="7"/>
-        <v>37</v>
+        <v>66</v>
       </c>
     </row>
     <row r="487" spans="1:4" x14ac:dyDescent="0.3">
@@ -9806,8 +9322,7 @@
         <v>5</v>
       </c>
       <c r="D487">
-        <f t="shared" ca="1" si="7"/>
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="488" spans="1:4" x14ac:dyDescent="0.3">
@@ -9821,8 +9336,7 @@
         <v>25</v>
       </c>
       <c r="D488">
-        <f t="shared" ca="1" si="7"/>
-        <v>72</v>
+        <v>14</v>
       </c>
     </row>
     <row r="489" spans="1:4" x14ac:dyDescent="0.3">
@@ -9836,8 +9350,7 @@
         <v>25</v>
       </c>
       <c r="D489">
-        <f t="shared" ca="1" si="7"/>
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="490" spans="1:4" x14ac:dyDescent="0.3">
@@ -9851,8 +9364,7 @@
         <v>17</v>
       </c>
       <c r="D490">
-        <f t="shared" ca="1" si="7"/>
-        <v>27</v>
+        <v>4</v>
       </c>
     </row>
     <row r="491" spans="1:4" x14ac:dyDescent="0.3">
@@ -9866,8 +9378,7 @@
         <v>25</v>
       </c>
       <c r="D491">
-        <f t="shared" ca="1" si="7"/>
-        <v>25</v>
+        <v>74</v>
       </c>
     </row>
     <row r="492" spans="1:4" x14ac:dyDescent="0.3">
@@ -9881,8 +9392,7 @@
         <v>17</v>
       </c>
       <c r="D492">
-        <f t="shared" ca="1" si="7"/>
-        <v>24</v>
+        <v>68</v>
       </c>
     </row>
     <row r="493" spans="1:4" x14ac:dyDescent="0.3">
@@ -9896,8 +9406,7 @@
         <v>5</v>
       </c>
       <c r="D493">
-        <f t="shared" ca="1" si="7"/>
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="494" spans="1:4" x14ac:dyDescent="0.3">
@@ -9911,8 +9420,7 @@
         <v>25</v>
       </c>
       <c r="D494">
-        <f t="shared" ca="1" si="7"/>
-        <v>24</v>
+        <v>77</v>
       </c>
     </row>
     <row r="495" spans="1:4" x14ac:dyDescent="0.3">
@@ -9926,8 +9434,7 @@
         <v>17</v>
       </c>
       <c r="D495">
-        <f t="shared" ca="1" si="7"/>
-        <v>3</v>
+        <v>56</v>
       </c>
     </row>
     <row r="496" spans="1:4" x14ac:dyDescent="0.3">
@@ -9941,8 +9448,7 @@
         <v>5</v>
       </c>
       <c r="D496">
-        <f t="shared" ca="1" si="7"/>
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="497" spans="1:4" x14ac:dyDescent="0.3">
@@ -9956,8 +9462,7 @@
         <v>8</v>
       </c>
       <c r="D497">
-        <f t="shared" ca="1" si="7"/>
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="498" spans="1:4" x14ac:dyDescent="0.3">
@@ -9971,8 +9476,7 @@
         <v>5</v>
       </c>
       <c r="D498">
-        <f t="shared" ca="1" si="7"/>
-        <v>73</v>
+        <v>53</v>
       </c>
     </row>
     <row r="499" spans="1:4" x14ac:dyDescent="0.3">
@@ -9986,8 +9490,7 @@
         <v>5</v>
       </c>
       <c r="D499">
-        <f t="shared" ca="1" si="7"/>
-        <v>58</v>
+        <v>15</v>
       </c>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.3">
@@ -10001,8 +9504,7 @@
         <v>5</v>
       </c>
       <c r="D500">
-        <f t="shared" ca="1" si="7"/>
-        <v>22</v>
+        <v>32</v>
       </c>
     </row>
     <row r="501" spans="1:4" x14ac:dyDescent="0.3">
@@ -10016,8 +9518,7 @@
         <v>11</v>
       </c>
       <c r="D501">
-        <f t="shared" ca="1" si="7"/>
-        <v>26</v>
+        <v>50</v>
       </c>
     </row>
     <row r="502" spans="1:4" x14ac:dyDescent="0.3">
@@ -10031,8 +9532,7 @@
         <v>8</v>
       </c>
       <c r="D502">
-        <f t="shared" ca="1" si="7"/>
-        <v>76</v>
+        <v>65</v>
       </c>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.3">
@@ -10046,8 +9546,7 @@
         <v>25</v>
       </c>
       <c r="D503">
-        <f t="shared" ca="1" si="7"/>
-        <v>84</v>
+        <v>58</v>
       </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.3">
@@ -10061,8 +9560,7 @@
         <v>5</v>
       </c>
       <c r="D504">
-        <f t="shared" ca="1" si="7"/>
-        <v>15</v>
+        <v>57</v>
       </c>
     </row>
     <row r="505" spans="1:4" x14ac:dyDescent="0.3">
@@ -10076,8 +9574,7 @@
         <v>17</v>
       </c>
       <c r="D505">
-        <f t="shared" ca="1" si="7"/>
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="506" spans="1:4" x14ac:dyDescent="0.3">
@@ -10091,8 +9588,7 @@
         <v>11</v>
       </c>
       <c r="D506">
-        <f t="shared" ca="1" si="7"/>
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="507" spans="1:4" x14ac:dyDescent="0.3">
@@ -10106,8 +9602,7 @@
         <v>8</v>
       </c>
       <c r="D507">
-        <f t="shared" ca="1" si="7"/>
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="508" spans="1:4" x14ac:dyDescent="0.3">
@@ -10121,8 +9616,7 @@
         <v>5</v>
       </c>
       <c r="D508">
-        <f t="shared" ca="1" si="7"/>
-        <v>20</v>
+        <v>46</v>
       </c>
     </row>
     <row r="509" spans="1:4" x14ac:dyDescent="0.3">
@@ -10136,8 +9630,7 @@
         <v>5</v>
       </c>
       <c r="D509">
-        <f t="shared" ca="1" si="7"/>
-        <v>66</v>
+        <v>53</v>
       </c>
     </row>
     <row r="510" spans="1:4" x14ac:dyDescent="0.3">
@@ -10151,8 +9644,7 @@
         <v>25</v>
       </c>
       <c r="D510">
-        <f t="shared" ca="1" si="7"/>
-        <v>18</v>
+        <v>65</v>
       </c>
     </row>
     <row r="511" spans="1:4" x14ac:dyDescent="0.3">
@@ -10166,8 +9658,7 @@
         <v>8</v>
       </c>
       <c r="D511">
-        <f t="shared" ca="1" si="7"/>
-        <v>38</v>
+        <v>54</v>
       </c>
     </row>
     <row r="512" spans="1:4" x14ac:dyDescent="0.3">
@@ -10181,8 +9672,7 @@
         <v>5</v>
       </c>
       <c r="D512">
-        <f t="shared" ca="1" si="7"/>
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="513" spans="1:4" x14ac:dyDescent="0.3">
@@ -10196,8 +9686,7 @@
         <v>8</v>
       </c>
       <c r="D513">
-        <f t="shared" ca="1" si="7"/>
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="514" spans="1:4" x14ac:dyDescent="0.3">
@@ -10211,8 +9700,7 @@
         <v>25</v>
       </c>
       <c r="D514">
-        <f t="shared" ca="1" si="7"/>
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="515" spans="1:4" x14ac:dyDescent="0.3">
@@ -10226,8 +9714,7 @@
         <v>8</v>
       </c>
       <c r="D515">
-        <f t="shared" ref="D515:D578" ca="1" si="8">RANDBETWEEN(2,90)</f>
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="516" spans="1:4" x14ac:dyDescent="0.3">
@@ -10241,8 +9728,7 @@
         <v>17</v>
       </c>
       <c r="D516">
-        <f t="shared" ca="1" si="8"/>
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.3">
@@ -10256,8 +9742,7 @@
         <v>5</v>
       </c>
       <c r="D517">
-        <f t="shared" ca="1" si="8"/>
-        <v>72</v>
+        <v>49</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.3">
@@ -10271,8 +9756,7 @@
         <v>11</v>
       </c>
       <c r="D518">
-        <f t="shared" ca="1" si="8"/>
-        <v>89</v>
+        <v>72</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.3">
@@ -10286,8 +9770,7 @@
         <v>5</v>
       </c>
       <c r="D519">
-        <f t="shared" ca="1" si="8"/>
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.3">
@@ -10301,8 +9784,7 @@
         <v>17</v>
       </c>
       <c r="D520">
-        <f t="shared" ca="1" si="8"/>
-        <v>37</v>
+        <v>89</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.3">
@@ -10316,8 +9798,7 @@
         <v>5</v>
       </c>
       <c r="D521">
-        <f t="shared" ca="1" si="8"/>
-        <v>83</v>
+        <v>53</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.3">
@@ -10331,8 +9812,7 @@
         <v>25</v>
       </c>
       <c r="D522">
-        <f t="shared" ca="1" si="8"/>
-        <v>68</v>
+        <v>53</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.3">
@@ -10346,8 +9826,7 @@
         <v>5</v>
       </c>
       <c r="D523">
-        <f t="shared" ca="1" si="8"/>
-        <v>82</v>
+        <v>40</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.3">
@@ -10361,8 +9840,7 @@
         <v>17</v>
       </c>
       <c r="D524">
-        <f t="shared" ca="1" si="8"/>
-        <v>30</v>
+        <v>88</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.3">
@@ -10376,8 +9854,7 @@
         <v>5</v>
       </c>
       <c r="D525">
-        <f t="shared" ca="1" si="8"/>
-        <v>81</v>
+        <v>45</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.3">
@@ -10391,8 +9868,7 @@
         <v>11</v>
       </c>
       <c r="D526">
-        <f t="shared" ca="1" si="8"/>
-        <v>39</v>
+        <v>9</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.3">
@@ -10406,8 +9882,7 @@
         <v>8</v>
       </c>
       <c r="D527">
-        <f t="shared" ca="1" si="8"/>
-        <v>68</v>
+        <v>8</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.3">
@@ -10421,8 +9896,7 @@
         <v>8</v>
       </c>
       <c r="D528">
-        <f t="shared" ca="1" si="8"/>
-        <v>42</v>
+        <v>15</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.3">
@@ -10436,8 +9910,7 @@
         <v>25</v>
       </c>
       <c r="D529">
-        <f t="shared" ca="1" si="8"/>
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.3">
@@ -10451,8 +9924,7 @@
         <v>17</v>
       </c>
       <c r="D530">
-        <f t="shared" ca="1" si="8"/>
-        <v>75</v>
+        <v>27</v>
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.3">
@@ -10466,8 +9938,7 @@
         <v>11</v>
       </c>
       <c r="D531">
-        <f t="shared" ca="1" si="8"/>
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.3">
@@ -10481,8 +9952,7 @@
         <v>5</v>
       </c>
       <c r="D532">
-        <f t="shared" ca="1" si="8"/>
-        <v>45</v>
+        <v>29</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.3">
@@ -10496,8 +9966,7 @@
         <v>8</v>
       </c>
       <c r="D533">
-        <f t="shared" ca="1" si="8"/>
-        <v>62</v>
+        <v>39</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.3">
@@ -10511,8 +9980,7 @@
         <v>17</v>
       </c>
       <c r="D534">
-        <f t="shared" ca="1" si="8"/>
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.3">
@@ -10526,8 +9994,7 @@
         <v>8</v>
       </c>
       <c r="D535">
-        <f t="shared" ca="1" si="8"/>
-        <v>57</v>
+        <v>13</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.3">
@@ -10541,8 +10008,7 @@
         <v>5</v>
       </c>
       <c r="D536">
-        <f t="shared" ca="1" si="8"/>
-        <v>27</v>
+        <v>90</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.3">
@@ -10556,8 +10022,7 @@
         <v>8</v>
       </c>
       <c r="D537">
-        <f t="shared" ca="1" si="8"/>
-        <v>90</v>
+        <v>3</v>
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.3">
@@ -10571,8 +10036,7 @@
         <v>8</v>
       </c>
       <c r="D538">
-        <f t="shared" ca="1" si="8"/>
-        <v>20</v>
+        <v>87</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.3">
@@ -10586,8 +10050,7 @@
         <v>11</v>
       </c>
       <c r="D539">
-        <f t="shared" ca="1" si="8"/>
-        <v>79</v>
+        <v>81</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.3">
@@ -10601,8 +10064,7 @@
         <v>8</v>
       </c>
       <c r="D540">
-        <f t="shared" ca="1" si="8"/>
-        <v>86</v>
+        <v>65</v>
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.3">
@@ -10616,8 +10078,7 @@
         <v>5</v>
       </c>
       <c r="D541">
-        <f t="shared" ca="1" si="8"/>
-        <v>18</v>
+        <v>54</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.3">
@@ -10631,8 +10092,7 @@
         <v>25</v>
       </c>
       <c r="D542">
-        <f t="shared" ca="1" si="8"/>
-        <v>38</v>
+        <v>59</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.3">
@@ -10646,8 +10106,7 @@
         <v>17</v>
       </c>
       <c r="D543">
-        <f t="shared" ca="1" si="8"/>
-        <v>48</v>
+        <v>61</v>
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.3">
@@ -10661,8 +10120,7 @@
         <v>17</v>
       </c>
       <c r="D544">
-        <f t="shared" ca="1" si="8"/>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.3">
@@ -10676,8 +10134,7 @@
         <v>25</v>
       </c>
       <c r="D545">
-        <f t="shared" ca="1" si="8"/>
-        <v>61</v>
+        <v>39</v>
       </c>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.3">
@@ -10691,8 +10148,7 @@
         <v>11</v>
       </c>
       <c r="D546">
-        <f t="shared" ca="1" si="8"/>
-        <v>20</v>
+        <v>34</v>
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.3">
@@ -10706,8 +10162,7 @@
         <v>5</v>
       </c>
       <c r="D547">
-        <f t="shared" ca="1" si="8"/>
-        <v>83</v>
+        <v>47</v>
       </c>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.3">
@@ -10721,8 +10176,7 @@
         <v>5</v>
       </c>
       <c r="D548">
-        <f t="shared" ca="1" si="8"/>
-        <v>64</v>
+        <v>19</v>
       </c>
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.3">
@@ -10736,8 +10190,7 @@
         <v>8</v>
       </c>
       <c r="D549">
-        <f t="shared" ca="1" si="8"/>
-        <v>53</v>
+        <v>86</v>
       </c>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.3">
@@ -10751,8 +10204,7 @@
         <v>17</v>
       </c>
       <c r="D550">
-        <f t="shared" ca="1" si="8"/>
-        <v>39</v>
+        <v>28</v>
       </c>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.3">
@@ -10766,8 +10218,7 @@
         <v>25</v>
       </c>
       <c r="D551">
-        <f t="shared" ca="1" si="8"/>
-        <v>19</v>
+        <v>89</v>
       </c>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.3">
@@ -10781,8 +10232,7 @@
         <v>25</v>
       </c>
       <c r="D552">
-        <f t="shared" ca="1" si="8"/>
-        <v>76</v>
+        <v>4</v>
       </c>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.3">
@@ -10796,8 +10246,7 @@
         <v>17</v>
       </c>
       <c r="D553">
-        <f t="shared" ca="1" si="8"/>
-        <v>50</v>
+        <v>85</v>
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.3">
@@ -10811,8 +10260,7 @@
         <v>25</v>
       </c>
       <c r="D554">
-        <f t="shared" ca="1" si="8"/>
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.3">
@@ -10826,8 +10274,7 @@
         <v>25</v>
       </c>
       <c r="D555">
-        <f t="shared" ca="1" si="8"/>
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.3">
@@ -10841,8 +10288,7 @@
         <v>17</v>
       </c>
       <c r="D556">
-        <f t="shared" ca="1" si="8"/>
-        <v>18</v>
+        <v>63</v>
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.3">
@@ -10856,8 +10302,7 @@
         <v>17</v>
       </c>
       <c r="D557">
-        <f t="shared" ca="1" si="8"/>
-        <v>54</v>
+        <v>16</v>
       </c>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.3">
@@ -10871,8 +10316,7 @@
         <v>17</v>
       </c>
       <c r="D558">
-        <f t="shared" ca="1" si="8"/>
-        <v>49</v>
+        <v>9</v>
       </c>
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.3">
@@ -10886,8 +10330,7 @@
         <v>11</v>
       </c>
       <c r="D559">
-        <f t="shared" ca="1" si="8"/>
-        <v>88</v>
+        <v>13</v>
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.3">
@@ -10901,8 +10344,7 @@
         <v>11</v>
       </c>
       <c r="D560">
-        <f t="shared" ca="1" si="8"/>
-        <v>71</v>
+        <v>47</v>
       </c>
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.3">
@@ -10916,8 +10358,7 @@
         <v>17</v>
       </c>
       <c r="D561">
-        <f t="shared" ca="1" si="8"/>
-        <v>42</v>
+        <v>71</v>
       </c>
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.3">
@@ -10931,8 +10372,7 @@
         <v>8</v>
       </c>
       <c r="D562">
-        <f t="shared" ca="1" si="8"/>
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.3">
@@ -10946,8 +10386,7 @@
         <v>11</v>
       </c>
       <c r="D563">
-        <f t="shared" ca="1" si="8"/>
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.3">
@@ -10961,8 +10400,7 @@
         <v>5</v>
       </c>
       <c r="D564">
-        <f t="shared" ca="1" si="8"/>
-        <v>65</v>
+        <v>81</v>
       </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.3">
@@ -10976,8 +10414,7 @@
         <v>8</v>
       </c>
       <c r="D565">
-        <f t="shared" ca="1" si="8"/>
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.3">
@@ -10991,8 +10428,7 @@
         <v>8</v>
       </c>
       <c r="D566">
-        <f t="shared" ca="1" si="8"/>
-        <v>26</v>
+        <v>81</v>
       </c>
     </row>
     <row r="567" spans="1:4" x14ac:dyDescent="0.3">
@@ -11006,8 +10442,7 @@
         <v>11</v>
       </c>
       <c r="D567">
-        <f t="shared" ca="1" si="8"/>
-        <v>30</v>
+        <v>44</v>
       </c>
     </row>
     <row r="568" spans="1:4" x14ac:dyDescent="0.3">
@@ -11021,8 +10456,7 @@
         <v>8</v>
       </c>
       <c r="D568">
-        <f t="shared" ca="1" si="8"/>
-        <v>85</v>
+        <v>11</v>
       </c>
     </row>
     <row r="569" spans="1:4" x14ac:dyDescent="0.3">
@@ -11036,8 +10470,7 @@
         <v>5</v>
       </c>
       <c r="D569">
-        <f t="shared" ca="1" si="8"/>
-        <v>46</v>
+        <v>10</v>
       </c>
     </row>
     <row r="570" spans="1:4" x14ac:dyDescent="0.3">
@@ -11051,8 +10484,7 @@
         <v>17</v>
       </c>
       <c r="D570">
-        <f t="shared" ca="1" si="8"/>
-        <v>35</v>
+        <v>70</v>
       </c>
     </row>
     <row r="571" spans="1:4" x14ac:dyDescent="0.3">
@@ -11066,8 +10498,7 @@
         <v>11</v>
       </c>
       <c r="D571">
-        <f t="shared" ca="1" si="8"/>
-        <v>49</v>
+        <v>70</v>
       </c>
     </row>
     <row r="572" spans="1:4" x14ac:dyDescent="0.3">
@@ -11081,8 +10512,7 @@
         <v>8</v>
       </c>
       <c r="D572">
-        <f t="shared" ca="1" si="8"/>
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="573" spans="1:4" x14ac:dyDescent="0.3">
@@ -11096,8 +10526,7 @@
         <v>8</v>
       </c>
       <c r="D573">
-        <f t="shared" ca="1" si="8"/>
-        <v>11</v>
+        <v>54</v>
       </c>
     </row>
     <row r="574" spans="1:4" x14ac:dyDescent="0.3">
@@ -11111,8 +10540,7 @@
         <v>17</v>
       </c>
       <c r="D574">
-        <f t="shared" ca="1" si="8"/>
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="575" spans="1:4" x14ac:dyDescent="0.3">
@@ -11126,8 +10554,7 @@
         <v>17</v>
       </c>
       <c r="D575">
-        <f t="shared" ca="1" si="8"/>
-        <v>71</v>
+        <v>3</v>
       </c>
     </row>
     <row r="576" spans="1:4" x14ac:dyDescent="0.3">
@@ -11141,8 +10568,7 @@
         <v>8</v>
       </c>
       <c r="D576">
-        <f t="shared" ca="1" si="8"/>
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="577" spans="1:4" x14ac:dyDescent="0.3">
@@ -11156,8 +10582,7 @@
         <v>11</v>
       </c>
       <c r="D577">
-        <f t="shared" ca="1" si="8"/>
-        <v>40</v>
+        <v>83</v>
       </c>
     </row>
     <row r="578" spans="1:4" x14ac:dyDescent="0.3">
@@ -11171,8 +10596,7 @@
         <v>11</v>
       </c>
       <c r="D578">
-        <f t="shared" ca="1" si="8"/>
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="579" spans="1:4" x14ac:dyDescent="0.3">
@@ -11186,8 +10610,7 @@
         <v>8</v>
       </c>
       <c r="D579">
-        <f t="shared" ref="D579:D601" ca="1" si="9">RANDBETWEEN(2,90)</f>
-        <v>36</v>
+        <v>63</v>
       </c>
     </row>
     <row r="580" spans="1:4" x14ac:dyDescent="0.3">
@@ -11201,8 +10624,7 @@
         <v>25</v>
       </c>
       <c r="D580">
-        <f t="shared" ca="1" si="9"/>
-        <v>85</v>
+        <v>12</v>
       </c>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.3">
@@ -11216,8 +10638,7 @@
         <v>25</v>
       </c>
       <c r="D581">
-        <f t="shared" ca="1" si="9"/>
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.3">
@@ -11231,8 +10652,7 @@
         <v>17</v>
       </c>
       <c r="D582">
-        <f t="shared" ca="1" si="9"/>
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.3">
@@ -11246,8 +10666,7 @@
         <v>5</v>
       </c>
       <c r="D583">
-        <f t="shared" ca="1" si="9"/>
-        <v>62</v>
+        <v>47</v>
       </c>
     </row>
     <row r="584" spans="1:4" x14ac:dyDescent="0.3">
@@ -11261,8 +10680,7 @@
         <v>5</v>
       </c>
       <c r="D584">
-        <f t="shared" ca="1" si="9"/>
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.3">
@@ -11276,8 +10694,7 @@
         <v>11</v>
       </c>
       <c r="D585">
-        <f t="shared" ca="1" si="9"/>
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="586" spans="1:4" x14ac:dyDescent="0.3">
@@ -11291,8 +10708,7 @@
         <v>8</v>
       </c>
       <c r="D586">
-        <f t="shared" ca="1" si="9"/>
-        <v>54</v>
+        <v>21</v>
       </c>
     </row>
     <row r="587" spans="1:4" x14ac:dyDescent="0.3">
@@ -11306,8 +10722,7 @@
         <v>11</v>
       </c>
       <c r="D587">
-        <f t="shared" ca="1" si="9"/>
-        <v>17</v>
+        <v>59</v>
       </c>
     </row>
     <row r="588" spans="1:4" x14ac:dyDescent="0.3">
@@ -11321,8 +10736,7 @@
         <v>8</v>
       </c>
       <c r="D588">
-        <f t="shared" ca="1" si="9"/>
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.3">
@@ -11336,8 +10750,7 @@
         <v>25</v>
       </c>
       <c r="D589">
-        <f t="shared" ca="1" si="9"/>
-        <v>80</v>
+        <v>3</v>
       </c>
     </row>
     <row r="590" spans="1:4" x14ac:dyDescent="0.3">
@@ -11351,8 +10764,7 @@
         <v>8</v>
       </c>
       <c r="D590">
-        <f t="shared" ca="1" si="9"/>
-        <v>26</v>
+        <v>11</v>
       </c>
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.3">
@@ -11366,8 +10778,7 @@
         <v>11</v>
       </c>
       <c r="D591">
-        <f t="shared" ca="1" si="9"/>
-        <v>64</v>
+        <v>10</v>
       </c>
     </row>
     <row r="592" spans="1:4" x14ac:dyDescent="0.3">
@@ -11381,8 +10792,7 @@
         <v>5</v>
       </c>
       <c r="D592">
-        <f t="shared" ca="1" si="9"/>
-        <v>5</v>
+        <v>53</v>
       </c>
     </row>
     <row r="593" spans="1:4" x14ac:dyDescent="0.3">
@@ -11396,8 +10806,7 @@
         <v>17</v>
       </c>
       <c r="D593">
-        <f t="shared" ca="1" si="9"/>
-        <v>41</v>
+        <v>64</v>
       </c>
     </row>
     <row r="594" spans="1:4" x14ac:dyDescent="0.3">
@@ -11411,8 +10820,7 @@
         <v>5</v>
       </c>
       <c r="D594">
-        <f t="shared" ca="1" si="9"/>
-        <v>14</v>
+        <v>75</v>
       </c>
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.3">
@@ -11426,8 +10834,7 @@
         <v>5</v>
       </c>
       <c r="D595">
-        <f t="shared" ca="1" si="9"/>
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="596" spans="1:4" x14ac:dyDescent="0.3">
@@ -11441,8 +10848,7 @@
         <v>8</v>
       </c>
       <c r="D596">
-        <f t="shared" ca="1" si="9"/>
-        <v>72</v>
+        <v>47</v>
       </c>
     </row>
     <row r="597" spans="1:4" x14ac:dyDescent="0.3">
@@ -11456,8 +10862,7 @@
         <v>17</v>
       </c>
       <c r="D597">
-        <f t="shared" ca="1" si="9"/>
-        <v>18</v>
+        <v>71</v>
       </c>
     </row>
     <row r="598" spans="1:4" x14ac:dyDescent="0.3">
@@ -11471,8 +10876,7 @@
         <v>8</v>
       </c>
       <c r="D598">
-        <f t="shared" ca="1" si="9"/>
-        <v>60</v>
+        <v>72</v>
       </c>
     </row>
     <row r="599" spans="1:4" x14ac:dyDescent="0.3">
@@ -11486,8 +10890,7 @@
         <v>11</v>
       </c>
       <c r="D599">
-        <f t="shared" ca="1" si="9"/>
-        <v>70</v>
+        <v>7</v>
       </c>
     </row>
     <row r="600" spans="1:4" x14ac:dyDescent="0.3">
@@ -11501,8 +10904,7 @@
         <v>25</v>
       </c>
       <c r="D600">
-        <f t="shared" ca="1" si="9"/>
-        <v>39</v>
+        <v>68</v>
       </c>
     </row>
     <row r="601" spans="1:4" x14ac:dyDescent="0.3">
@@ -11516,8 +10918,7 @@
         <v>17</v>
       </c>
       <c r="D601">
-        <f t="shared" ca="1" si="9"/>
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
